--- a/challenge/TugasSC/excel uas SC.xlsx
+++ b/challenge/TugasSC/excel uas SC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 4\belajarC\challenge\TugasSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94317DDC-9DDE-46FF-AE42-9AD302AB5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39ED1B2B-39F6-4B2F-B249-4DAB54B9C806}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Punya guwa" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="90">
   <si>
     <t>PERMINTAAN TERBESAR (pb1)</t>
   </si>
@@ -507,16 +507,22 @@
   <si>
     <t>Z</t>
   </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,8 +625,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +679,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,9 +1426,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,86 +1435,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1505,6 +1455,118 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,8 +1576,43 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2199,6 +2296,671 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5404</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>281021</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>75660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EB0D18-16A4-01C6-2900-02137722AD58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12045004" y="1609725"/>
+          <a:ext cx="2047267" cy="494760"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>197827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BAB8BE-C668-F155-45DE-46FF23DE47A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15071481" y="1807552"/>
+          <a:ext cx="1729154" cy="1199418"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>271096</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3219DA37-24A6-E898-7981-9560ED393AF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18775973" y="2043478"/>
+          <a:ext cx="2278673" cy="985472"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5404</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>281021</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEAB295-3AE9-455D-A433-9F6706E85520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12045004" y="4867275"/>
+          <a:ext cx="2047267" cy="485235"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>197827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08657990-E61B-413D-946A-29762D333015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18775973" y="4855552"/>
+          <a:ext cx="2359269" cy="465259"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>278781</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>51110</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D058DEAC-660E-4C94-A4C9-AF1CE1397B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15042531" y="4657725"/>
+          <a:ext cx="2058329" cy="944601"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>197827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A03D105-68F0-40A8-BB2F-37F2924A5AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15071481" y="8379802"/>
+          <a:ext cx="1729154" cy="1189893"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>205155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1828ADB7-4AD9-47F0-8F9F-D6BF69C06F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12274062" y="8177580"/>
+          <a:ext cx="1551842" cy="1447799"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>197828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE109DB-3141-4096-AC23-B4BFB3FCE8B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18781102" y="8398851"/>
+          <a:ext cx="2002448" cy="1200152"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>205155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940B21EE-B823-4F79-9708-9E8C7D0ED67B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12274062" y="11368455"/>
+          <a:ext cx="1551842" cy="1409699"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>197828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89AEFFFF-F5CA-4DE8-99B1-473FDFA522D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18781102" y="11589726"/>
+          <a:ext cx="2002448" cy="1171577"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>278781</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>51110</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>125451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F299619C-5DF1-498B-A4BE-0633C55305D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15042531" y="11172825"/>
+          <a:ext cx="2058329" cy="925551"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -2499,11 +3261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460659AC-E46C-4858-B721-09DE4825B54B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AU86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A1:E29"/>
+    <sheetView topLeftCell="A67" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,21 +3276,21 @@
     <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="4.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="76" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="4.28515625" style="1" customWidth="1"/>
     <col min="20" max="20" width="5.140625" style="1" customWidth="1"/>
     <col min="21" max="25" width="4.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" style="76" bestFit="1" customWidth="1"/>
     <col min="27" max="36" width="4.28515625" style="1"/>
-    <col min="37" max="37" width="5.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5.7109375" style="76" customWidth="1"/>
     <col min="38" max="38" width="9.28515625" style="1" customWidth="1"/>
     <col min="39" max="39" width="2.28515625" style="1" customWidth="1"/>
     <col min="40" max="40" width="6.28515625" style="1" customWidth="1"/>
@@ -2620,7 +3382,7 @@
       <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="87">
+      <c r="P7" s="101">
         <v>1</v>
       </c>
     </row>
@@ -2666,7 +3428,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
       <c r="D9" s="10"/>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="133" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="36" t="s">
@@ -2687,11 +3449,11 @@
         <f>I9-K9</f>
         <v>1500</v>
       </c>
-      <c r="M9" s="114">
+      <c r="M9" s="137">
         <f>L9/L10</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="P9" s="107">
+      <c r="P9" s="140">
         <v>0.77</v>
       </c>
       <c r="Q9" s="95"/>
@@ -2701,7 +3463,7 @@
       <c r="U9" s="83"/>
       <c r="V9" s="83"/>
       <c r="W9" s="84"/>
-      <c r="Z9" s="96">
+      <c r="Z9" s="103">
         <v>0.77</v>
       </c>
       <c r="AA9" s="78"/>
@@ -2722,7 +3484,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="134"/>
       <c r="H10" s="37" t="s">
         <v>58</v>
       </c>
@@ -2741,22 +3503,22 @@
         <f>I10-K10</f>
         <v>1950</v>
       </c>
-      <c r="M10" s="115"/>
-      <c r="P10" s="108"/>
+      <c r="M10" s="138"/>
+      <c r="P10" s="145"/>
       <c r="Q10" s="91"/>
       <c r="R10" s="92"/>
       <c r="S10" s="93"/>
       <c r="T10" s="94"/>
       <c r="W10" s="85"/>
-      <c r="Z10" s="96"/>
+      <c r="Z10" s="103"/>
       <c r="AA10" s="78"/>
-      <c r="AH10" s="122"/>
-      <c r="AI10" s="122"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="129" t="s">
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="108"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="AM10" s="130"/>
+      <c r="AM10" s="149"/>
     </row>
     <row r="11" spans="2:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -2766,7 +3528,7 @@
       <c r="D11" s="11">
         <v>101500</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="76">
         <v>0.75</v>
       </c>
       <c r="Q11" s="78"/>
@@ -2783,8 +3545,8 @@
       <c r="AE11" s="83"/>
       <c r="AF11" s="83"/>
       <c r="AG11" s="84"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="122"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="108"/>
       <c r="AK11" s="76">
         <v>0.5</v>
       </c>
@@ -2811,13 +3573,13 @@
       <c r="R12" s="80"/>
       <c r="T12" s="89"/>
       <c r="W12" s="85"/>
-      <c r="Z12" s="121">
+      <c r="Z12" s="140">
         <v>0.23</v>
       </c>
       <c r="AA12" s="78"/>
       <c r="AB12" s="80"/>
       <c r="AG12" s="85"/>
-      <c r="AK12" s="121">
+      <c r="AK12" s="140">
         <v>0.23</v>
       </c>
       <c r="AL12" s="78"/>
@@ -2850,13 +3612,13 @@
       <c r="R13" s="80"/>
       <c r="T13" s="89"/>
       <c r="W13" s="85"/>
-      <c r="Z13" s="121"/>
+      <c r="Z13" s="140"/>
       <c r="AA13" s="97"/>
       <c r="AB13" s="92"/>
       <c r="AC13" s="93"/>
       <c r="AD13" s="98"/>
       <c r="AG13" s="85"/>
-      <c r="AK13" s="121"/>
+      <c r="AK13" s="140"/>
       <c r="AL13" s="97"/>
       <c r="AM13" s="102"/>
       <c r="AN13" s="92"/>
@@ -2872,7 +3634,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="133" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="36" t="s">
@@ -2893,7 +3655,7 @@
         <f>I14-K14</f>
         <v>450</v>
       </c>
-      <c r="M14" s="114">
+      <c r="M14" s="137">
         <f>L14/L15</f>
         <v>0.23076923076923078</v>
       </c>
@@ -2919,7 +3681,7 @@
         <f>M9</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="G15" s="111"/>
+      <c r="G15" s="134"/>
       <c r="H15" s="37" t="s">
         <v>58</v>
       </c>
@@ -2938,8 +3700,8 @@
         <f>I15-K15</f>
         <v>1950</v>
       </c>
-      <c r="M15" s="115"/>
-      <c r="P15" s="1">
+      <c r="M15" s="138"/>
+      <c r="P15" s="76">
         <v>0.25</v>
       </c>
       <c r="Q15" s="79"/>
@@ -2983,63 +3745,63 @@
         <f>M14</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="76">
         <v>0</v>
       </c>
-      <c r="Q16" s="117">
+      <c r="Q16" s="141">
         <f>$H$5</f>
         <v>101150</v>
       </c>
-      <c r="R16" s="117"/>
+      <c r="R16" s="141"/>
       <c r="S16" s="88"/>
-      <c r="T16" s="117">
+      <c r="T16" s="141">
         <f>$K$5</f>
         <v>101600</v>
       </c>
-      <c r="U16" s="117"/>
-      <c r="W16" s="117">
+      <c r="U16" s="141"/>
+      <c r="W16" s="141">
         <f>$I$5</f>
         <v>103100</v>
       </c>
-      <c r="X16" s="117"/>
-      <c r="Z16" s="1">
+      <c r="X16" s="141"/>
+      <c r="Z16" s="76">
         <v>0</v>
       </c>
-      <c r="AA16" s="117">
+      <c r="AA16" s="141">
         <f>$H$20</f>
         <v>99120</v>
       </c>
-      <c r="AB16" s="117"/>
+      <c r="AB16" s="141"/>
       <c r="AC16" s="88"/>
-      <c r="AD16" s="117">
+      <c r="AD16" s="141">
         <f>$K$20</f>
         <v>99250</v>
       </c>
-      <c r="AE16" s="117"/>
-      <c r="AG16" s="117">
+      <c r="AE16" s="141"/>
+      <c r="AG16" s="141">
         <f>$I$20</f>
         <v>99510</v>
       </c>
-      <c r="AH16" s="117"/>
-      <c r="AK16" s="1">
+      <c r="AH16" s="141"/>
+      <c r="AK16" s="76">
         <v>0</v>
       </c>
-      <c r="AM16" s="117">
+      <c r="AM16" s="141">
         <f>$H$33</f>
         <v>100250</v>
       </c>
-      <c r="AN16" s="117"/>
+      <c r="AN16" s="141"/>
       <c r="AO16" s="88"/>
-      <c r="AP16" s="120">
+      <c r="AP16" s="139">
         <f>I53</f>
         <v>102829.5</v>
       </c>
-      <c r="AQ16" s="120"/>
-      <c r="AS16" s="120">
+      <c r="AQ16" s="139"/>
+      <c r="AS16" s="139">
         <f>$I$33</f>
         <v>104100</v>
       </c>
-      <c r="AT16" s="120"/>
+      <c r="AT16" s="139"/>
     </row>
     <row r="17" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -3057,37 +3819,37 @@
         <v>13</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="Q18" s="116" t="s">
+      <c r="Q18" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="AA18" s="118" t="s">
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="142"/>
+      <c r="AA18" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="118"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AL18" s="119" t="s">
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="143"/>
+      <c r="AL18" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="119"/>
-      <c r="AO18" s="119"/>
-      <c r="AP18" s="119"/>
-      <c r="AQ18" s="119"/>
-      <c r="AR18" s="119"/>
-      <c r="AS18" s="119"/>
-      <c r="AT18" s="119"/>
+      <c r="AM18" s="147"/>
+      <c r="AN18" s="147"/>
+      <c r="AO18" s="147"/>
+      <c r="AP18" s="147"/>
+      <c r="AQ18" s="147"/>
+      <c r="AR18" s="147"/>
+      <c r="AS18" s="147"/>
+      <c r="AT18" s="147"/>
     </row>
     <row r="19" spans="2:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
@@ -3179,13 +3941,13 @@
       <c r="M23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="87">
+      <c r="P23" s="101">
         <v>1</v>
       </c>
-      <c r="Z23" s="125" t="s">
+      <c r="Z23" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="AA23" s="125"/>
+      <c r="AA23" s="150"/>
     </row>
     <row r="24" spans="2:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
@@ -3196,7 +3958,7 @@
         <f>K75</f>
         <v>101135.5</v>
       </c>
-      <c r="G24" s="110" t="s">
+      <c r="G24" s="133" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="34" t="s">
@@ -3217,7 +3979,7 @@
         <f>I24-K24</f>
         <v>260</v>
       </c>
-      <c r="M24" s="112">
+      <c r="M24" s="135">
         <f>L24/L25</f>
         <v>0.66666666666666663</v>
       </c>
@@ -3231,20 +3993,20 @@
         <v>0.9</v>
       </c>
       <c r="AA24" s="78"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="122"/>
-      <c r="AD24" s="122"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="122"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
       <c r="AK24" s="76">
         <v>0.8</v>
       </c>
-      <c r="AL24" s="129" t="s">
+      <c r="AL24" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="AM24" s="130"/>
+      <c r="AM24" s="149"/>
     </row>
     <row r="25" spans="2:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
@@ -3255,7 +4017,7 @@
         <f>K86</f>
         <v>101135.5</v>
       </c>
-      <c r="G25" s="111"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="34" t="s">
         <v>58</v>
       </c>
@@ -3274,8 +4036,8 @@
         <f>I25-K25</f>
         <v>390</v>
       </c>
-      <c r="M25" s="113"/>
-      <c r="P25" s="107">
+      <c r="M25" s="136"/>
+      <c r="P25" s="140">
         <v>0.77</v>
       </c>
       <c r="Q25" s="95"/>
@@ -3285,7 +4047,7 @@
       <c r="U25" s="83"/>
       <c r="V25" s="83"/>
       <c r="W25" s="84"/>
-      <c r="Z25" s="124">
+      <c r="Z25" s="145">
         <v>0.67</v>
       </c>
       <c r="AA25" s="78"/>
@@ -3295,8 +4057,8 @@
       <c r="AE25" s="83"/>
       <c r="AF25" s="83"/>
       <c r="AG25" s="84"/>
-      <c r="AH25" s="122"/>
-      <c r="AK25" s="124">
+      <c r="AH25" s="108"/>
+      <c r="AK25" s="145">
         <v>0.67</v>
       </c>
       <c r="AN25" s="82"/>
@@ -3310,32 +4072,32 @@
       <c r="B26" s="4"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
-      <c r="P26" s="108"/>
+      <c r="P26" s="145"/>
       <c r="Q26" s="91"/>
       <c r="R26" s="92"/>
       <c r="S26" s="93"/>
       <c r="T26" s="94"/>
       <c r="W26" s="85"/>
-      <c r="Z26" s="124"/>
+      <c r="Z26" s="145"/>
       <c r="AA26" s="91"/>
       <c r="AB26" s="92"/>
       <c r="AC26" s="93"/>
       <c r="AD26" s="98"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="122"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
       <c r="AG26" s="85"/>
-      <c r="AH26" s="122"/>
-      <c r="AI26" s="122"/>
-      <c r="AK26" s="126"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108"/>
+      <c r="AK26" s="151"/>
       <c r="AL26" s="91"/>
       <c r="AM26" s="93"/>
       <c r="AN26" s="92"/>
       <c r="AO26" s="93"/>
       <c r="AP26" s="98"/>
-      <c r="AQ26" s="122"/>
-      <c r="AR26" s="122"/>
+      <c r="AQ26" s="108"/>
+      <c r="AR26" s="108"/>
       <c r="AS26" s="85"/>
-      <c r="AT26" s="122"/>
+      <c r="AT26" s="108"/>
     </row>
     <row r="27" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
@@ -3348,7 +4110,7 @@
       <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="76">
         <v>0.75</v>
       </c>
       <c r="Q27" s="78"/>
@@ -3360,25 +4122,25 @@
       </c>
       <c r="AA27" s="78"/>
       <c r="AB27" s="80"/>
-      <c r="AC27" s="122"/>
+      <c r="AC27" s="108"/>
       <c r="AD27" s="99"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
       <c r="AG27" s="85"/>
-      <c r="AH27" s="122"/>
-      <c r="AI27" s="122"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
       <c r="AK27" s="76">
         <v>0.5</v>
       </c>
       <c r="AL27" s="78"/>
-      <c r="AM27" s="122"/>
+      <c r="AM27" s="108"/>
       <c r="AN27" s="80"/>
-      <c r="AO27" s="122"/>
+      <c r="AO27" s="108"/>
       <c r="AP27" s="99"/>
-      <c r="AQ27" s="122"/>
-      <c r="AR27" s="122"/>
+      <c r="AQ27" s="108"/>
+      <c r="AR27" s="108"/>
       <c r="AS27" s="85"/>
-      <c r="AT27" s="122"/>
+      <c r="AT27" s="108"/>
     </row>
     <row r="28" spans="2:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
@@ -3411,25 +4173,25 @@
       <c r="Z28" s="103"/>
       <c r="AA28" s="78"/>
       <c r="AB28" s="80"/>
-      <c r="AC28" s="122"/>
+      <c r="AC28" s="108"/>
       <c r="AD28" s="99"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="122"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
       <c r="AG28" s="85"/>
-      <c r="AH28" s="122"/>
-      <c r="AI28" s="122"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="108"/>
       <c r="AL28" s="78"/>
-      <c r="AM28" s="122"/>
+      <c r="AM28" s="108"/>
       <c r="AN28" s="80"/>
-      <c r="AO28" s="122"/>
+      <c r="AO28" s="108"/>
       <c r="AP28" s="99"/>
-      <c r="AQ28" s="122"/>
-      <c r="AR28" s="122"/>
+      <c r="AQ28" s="108"/>
+      <c r="AR28" s="108"/>
       <c r="AS28" s="85"/>
-      <c r="AT28" s="122"/>
+      <c r="AT28" s="108"/>
     </row>
     <row r="29" spans="2:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="110" t="s">
+      <c r="G29" s="133" t="s">
         <v>49</v>
       </c>
       <c r="H29" s="34" t="s">
@@ -3450,7 +4212,7 @@
         <f>I29-K29</f>
         <v>130</v>
       </c>
-      <c r="M29" s="112">
+      <c r="M29" s="135">
         <f>L29/L30</f>
         <v>0.33333333333333331</v>
       </c>
@@ -3464,30 +4226,30 @@
       <c r="Z29" s="103">
         <v>0.3</v>
       </c>
-      <c r="AA29" s="123"/>
+      <c r="AA29" s="109"/>
       <c r="AB29" s="80"/>
-      <c r="AC29" s="122"/>
+      <c r="AC29" s="108"/>
       <c r="AD29" s="99"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
+      <c r="AE29" s="108"/>
+      <c r="AF29" s="108"/>
       <c r="AG29" s="85"/>
-      <c r="AH29" s="122"/>
-      <c r="AI29" s="122"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="108"/>
       <c r="AK29" s="103">
         <v>0.3</v>
       </c>
-      <c r="AL29" s="123"/>
-      <c r="AM29" s="122"/>
+      <c r="AL29" s="109"/>
+      <c r="AM29" s="108"/>
       <c r="AN29" s="80"/>
-      <c r="AO29" s="122"/>
+      <c r="AO29" s="108"/>
       <c r="AP29" s="99"/>
-      <c r="AQ29" s="122"/>
-      <c r="AR29" s="122"/>
+      <c r="AQ29" s="108"/>
+      <c r="AR29" s="108"/>
       <c r="AS29" s="85"/>
-      <c r="AT29" s="122"/>
+      <c r="AT29" s="108"/>
     </row>
     <row r="30" spans="2:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="111"/>
+      <c r="G30" s="134"/>
       <c r="H30" s="34" t="s">
         <v>58</v>
       </c>
@@ -3506,33 +4268,32 @@
         <f>I30-K30</f>
         <v>390</v>
       </c>
-      <c r="M30" s="113"/>
+      <c r="M30" s="136"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="80"/>
       <c r="T30" s="89"/>
       <c r="W30" s="85"/>
-      <c r="Z30" s="76"/>
       <c r="AA30" s="78"/>
       <c r="AB30" s="80"/>
-      <c r="AC30" s="122"/>
+      <c r="AC30" s="108"/>
       <c r="AD30" s="99"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
+      <c r="AE30" s="108"/>
+      <c r="AF30" s="108"/>
       <c r="AG30" s="85"/>
-      <c r="AH30" s="122"/>
-      <c r="AI30" s="122"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="108"/>
       <c r="AL30" s="78"/>
-      <c r="AM30" s="122"/>
+      <c r="AM30" s="108"/>
       <c r="AN30" s="80"/>
-      <c r="AO30" s="122"/>
+      <c r="AO30" s="108"/>
       <c r="AP30" s="99"/>
-      <c r="AQ30" s="122"/>
-      <c r="AR30" s="122"/>
+      <c r="AQ30" s="108"/>
+      <c r="AR30" s="108"/>
       <c r="AS30" s="85"/>
-      <c r="AT30" s="122"/>
+      <c r="AT30" s="108"/>
     </row>
     <row r="31" spans="2:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P31" s="1">
+      <c r="P31" s="76">
         <v>0.25</v>
       </c>
       <c r="Q31" s="79"/>
@@ -3554,7 +4315,7 @@
       <c r="AF31" s="77"/>
       <c r="AG31" s="86"/>
       <c r="AH31" s="77"/>
-      <c r="AI31" s="122"/>
+      <c r="AI31" s="108"/>
       <c r="AK31" s="76">
         <v>0.1</v>
       </c>
@@ -3578,63 +4339,63 @@
       <c r="I32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="76">
         <v>0</v>
       </c>
-      <c r="Q32" s="117">
+      <c r="Q32" s="141">
         <f>H5</f>
         <v>101150</v>
       </c>
-      <c r="R32" s="117"/>
+      <c r="R32" s="141"/>
       <c r="S32" s="88"/>
-      <c r="T32" s="117">
+      <c r="T32" s="141">
         <f>K5</f>
         <v>101600</v>
       </c>
-      <c r="U32" s="117"/>
-      <c r="W32" s="117">
+      <c r="U32" s="141"/>
+      <c r="W32" s="141">
         <f>I5</f>
         <v>103100</v>
       </c>
-      <c r="X32" s="117"/>
-      <c r="Z32" s="1">
+      <c r="X32" s="141"/>
+      <c r="Z32" s="76">
         <v>0</v>
       </c>
-      <c r="AA32" s="117">
+      <c r="AA32" s="141">
         <f>H20</f>
         <v>99120</v>
       </c>
-      <c r="AB32" s="117"/>
+      <c r="AB32" s="141"/>
       <c r="AC32" s="88"/>
-      <c r="AD32" s="117">
+      <c r="AD32" s="141">
         <f>K20</f>
         <v>99250</v>
       </c>
-      <c r="AE32" s="117"/>
-      <c r="AG32" s="117">
+      <c r="AE32" s="141"/>
+      <c r="AG32" s="141">
         <f>I20</f>
         <v>99510</v>
       </c>
-      <c r="AH32" s="117"/>
-      <c r="AK32" s="1">
+      <c r="AH32" s="141"/>
+      <c r="AK32" s="76">
         <v>0</v>
       </c>
-      <c r="AM32" s="117">
+      <c r="AM32" s="141">
         <f>H33</f>
         <v>100250</v>
       </c>
-      <c r="AN32" s="117"/>
+      <c r="AN32" s="141"/>
       <c r="AO32" s="88"/>
-      <c r="AP32" s="127">
+      <c r="AP32" s="144">
         <f>I64</f>
         <v>101520.5</v>
       </c>
-      <c r="AQ32" s="127"/>
-      <c r="AS32" s="127">
+      <c r="AQ32" s="144"/>
+      <c r="AS32" s="144">
         <f>I33</f>
         <v>104100</v>
       </c>
-      <c r="AT32" s="127"/>
+      <c r="AT32" s="144"/>
     </row>
     <row r="33" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H33" s="21">
@@ -3647,37 +4408,37 @@
       </c>
     </row>
     <row r="34" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="116" t="s">
+      <c r="Q34" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="R34" s="116"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-      <c r="AA34" s="118" t="s">
+      <c r="R34" s="142"/>
+      <c r="S34" s="142"/>
+      <c r="T34" s="142"/>
+      <c r="U34" s="142"/>
+      <c r="V34" s="142"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="142"/>
+      <c r="AA34" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="118"/>
-      <c r="AE34" s="118"/>
-      <c r="AF34" s="118"/>
-      <c r="AG34" s="118"/>
-      <c r="AH34" s="118"/>
-      <c r="AL34" s="119" t="s">
+      <c r="AB34" s="143"/>
+      <c r="AC34" s="143"/>
+      <c r="AD34" s="143"/>
+      <c r="AE34" s="143"/>
+      <c r="AF34" s="143"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="143"/>
+      <c r="AL34" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="AM34" s="119"/>
-      <c r="AN34" s="119"/>
-      <c r="AO34" s="119"/>
-      <c r="AP34" s="119"/>
-      <c r="AQ34" s="119"/>
-      <c r="AR34" s="119"/>
-      <c r="AS34" s="119"/>
-      <c r="AT34" s="119"/>
+      <c r="AM34" s="147"/>
+      <c r="AN34" s="147"/>
+      <c r="AO34" s="147"/>
+      <c r="AP34" s="147"/>
+      <c r="AQ34" s="147"/>
+      <c r="AR34" s="147"/>
+      <c r="AS34" s="147"/>
+      <c r="AT34" s="147"/>
     </row>
     <row r="35" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="22" t="s">
@@ -3694,7 +4455,7 @@
       </c>
     </row>
     <row r="36" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="133" t="s">
         <v>51</v>
       </c>
       <c r="H36" s="41" t="s">
@@ -3716,7 +4477,7 @@
       </c>
     </row>
     <row r="37" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="111"/>
+      <c r="G37" s="134"/>
       <c r="H37" s="41" t="s">
         <v>58</v>
       </c>
@@ -3739,11 +4500,11 @@
     <row r="38" spans="7:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="7:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H39"/>
-      <c r="P39" s="87">
+      <c r="P39" s="101">
         <v>1</v>
       </c>
-      <c r="Z39" s="128"/>
-      <c r="AA39" s="128"/>
+      <c r="Z39" s="152"/>
+      <c r="AA39" s="152"/>
     </row>
     <row r="40" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G40" s="22" t="s">
@@ -3765,7 +4526,7 @@
       <c r="X40" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="Y40" s="122"/>
+      <c r="Y40" s="108"/>
       <c r="Z40" s="76">
         <v>0.8</v>
       </c>
@@ -3776,7 +4537,7 @@
       <c r="AL40" s="78"/>
     </row>
     <row r="41" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="110" t="s">
+      <c r="G41" s="133" t="s">
         <v>52</v>
       </c>
       <c r="H41" s="41" t="s">
@@ -3796,7 +4557,7 @@
         <f>I41&amp;" "&amp;J41&amp;" "&amp;K41</f>
         <v>x - 100250</v>
       </c>
-      <c r="P41" s="121">
+      <c r="P41" s="140">
         <v>0.6</v>
       </c>
       <c r="Q41" s="78"/>
@@ -3806,7 +4567,7 @@
       <c r="U41" s="83"/>
       <c r="V41" s="83"/>
       <c r="W41" s="84"/>
-      <c r="Z41" s="96">
+      <c r="Z41" s="103">
         <v>0.77</v>
       </c>
       <c r="AA41" s="78"/>
@@ -3824,7 +4585,7 @@
       <c r="AU41" s="77"/>
     </row>
     <row r="42" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="111"/>
+      <c r="G42" s="134"/>
       <c r="H42" s="41" t="s">
         <v>58</v>
       </c>
@@ -3843,26 +4604,26 @@
         <f>I42-K42</f>
         <v>3850</v>
       </c>
-      <c r="P42" s="124"/>
+      <c r="P42" s="145"/>
       <c r="Q42" s="78"/>
       <c r="R42" s="80"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="108"/>
       <c r="W42" s="85"/>
-      <c r="Z42" s="96"/>
+      <c r="Z42" s="103"/>
       <c r="AA42" s="78"/>
-      <c r="AH42" s="122"/>
-      <c r="AI42" s="122"/>
-      <c r="AK42" s="96"/>
+      <c r="AH42" s="108"/>
+      <c r="AI42" s="108"/>
+      <c r="AK42" s="103"/>
       <c r="AL42" s="78"/>
-      <c r="AM42" s="122"/>
+      <c r="AM42" s="108"/>
       <c r="AN42" s="82"/>
       <c r="AO42" s="83"/>
       <c r="AP42" s="83"/>
       <c r="AQ42" s="83"/>
       <c r="AR42" s="83"/>
       <c r="AS42" s="84"/>
-      <c r="AT42" s="122"/>
+      <c r="AT42" s="108"/>
     </row>
     <row r="43" spans="7:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="P43" s="76">
@@ -3870,8 +4631,8 @@
       </c>
       <c r="Q43" s="78"/>
       <c r="R43" s="80"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="108"/>
       <c r="W43" s="85"/>
       <c r="Z43" s="76">
         <v>0.5</v>
@@ -3883,20 +4644,20 @@
       <c r="AE43" s="83"/>
       <c r="AF43" s="83"/>
       <c r="AG43" s="84"/>
-      <c r="AH43" s="122"/>
-      <c r="AI43" s="122"/>
+      <c r="AH43" s="108"/>
+      <c r="AI43" s="108"/>
       <c r="AK43" s="76">
         <v>0.5</v>
       </c>
       <c r="AL43" s="78"/>
-      <c r="AM43" s="122"/>
+      <c r="AM43" s="108"/>
       <c r="AN43" s="80"/>
-      <c r="AO43" s="122"/>
-      <c r="AP43" s="122"/>
-      <c r="AQ43" s="122"/>
-      <c r="AR43" s="122"/>
+      <c r="AO43" s="108"/>
+      <c r="AP43" s="108"/>
+      <c r="AQ43" s="108"/>
+      <c r="AR43" s="108"/>
       <c r="AS43" s="85"/>
-      <c r="AT43" s="122"/>
+      <c r="AT43" s="108"/>
     </row>
     <row r="44" spans="7:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G44" s="53" t="s">
@@ -3919,32 +4680,32 @@
       <c r="L44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P44" s="124">
+      <c r="P44" s="145">
         <v>0.23</v>
       </c>
       <c r="Q44" s="78"/>
       <c r="R44" s="80"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
       <c r="W44" s="85"/>
-      <c r="Z44" s="121">
+      <c r="Z44" s="140">
         <v>0.23</v>
       </c>
       <c r="AA44" s="78"/>
       <c r="AB44" s="80"/>
       <c r="AG44" s="85"/>
-      <c r="AK44" s="121">
+      <c r="AK44" s="140">
         <v>0.23</v>
       </c>
       <c r="AL44" s="78"/>
-      <c r="AM44" s="122"/>
+      <c r="AM44" s="108"/>
       <c r="AN44" s="80"/>
-      <c r="AO44" s="122"/>
-      <c r="AP44" s="122"/>
-      <c r="AQ44" s="122"/>
-      <c r="AR44" s="122"/>
+      <c r="AO44" s="108"/>
+      <c r="AP44" s="108"/>
+      <c r="AQ44" s="108"/>
+      <c r="AR44" s="108"/>
       <c r="AS44" s="85"/>
-      <c r="AT44" s="122"/>
+      <c r="AT44" s="108"/>
     </row>
     <row r="45" spans="7:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G45" s="42" t="s">
@@ -3954,50 +4715,49 @@
         <f>MIN(I44,K44)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P45" s="124"/>
+      <c r="P45" s="145"/>
       <c r="Q45" s="91"/>
       <c r="R45" s="92"/>
       <c r="S45" s="93"/>
       <c r="T45" s="98"/>
       <c r="W45" s="85"/>
-      <c r="Z45" s="121"/>
+      <c r="Z45" s="140"/>
       <c r="AA45" s="97"/>
       <c r="AB45" s="92"/>
       <c r="AC45" s="93"/>
       <c r="AD45" s="98"/>
       <c r="AG45" s="85"/>
-      <c r="AK45" s="121"/>
+      <c r="AK45" s="140"/>
       <c r="AL45" s="97"/>
       <c r="AM45" s="93"/>
       <c r="AN45" s="92"/>
       <c r="AO45" s="93"/>
       <c r="AP45" s="98"/>
-      <c r="AQ45" s="122"/>
-      <c r="AR45" s="122"/>
+      <c r="AQ45" s="108"/>
+      <c r="AR45" s="108"/>
       <c r="AS45" s="85"/>
-      <c r="AT45" s="122"/>
+      <c r="AT45" s="108"/>
     </row>
     <row r="46" spans="7:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="104" t="s">
+      <c r="H46" s="127" t="s">
         <v>62</v>
       </c>
       <c r="I46" s="43" t="str">
         <f>H36</f>
         <v>b - x</v>
       </c>
-      <c r="J46" s="105" t="s">
+      <c r="J46" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="109">
+      <c r="K46" s="132">
         <f>H45</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
-      <c r="P46" s="76"/>
       <c r="Q46" s="78"/>
       <c r="R46" s="80"/>
-      <c r="S46" s="122"/>
+      <c r="S46" s="108"/>
       <c r="T46" s="99"/>
       <c r="W46" s="85"/>
       <c r="AA46" s="78"/>
@@ -4005,23 +4765,23 @@
       <c r="AD46" s="99"/>
       <c r="AG46" s="85"/>
       <c r="AL46" s="78"/>
-      <c r="AM46" s="122"/>
+      <c r="AM46" s="108"/>
       <c r="AN46" s="80"/>
-      <c r="AO46" s="122"/>
+      <c r="AO46" s="108"/>
       <c r="AP46" s="99"/>
-      <c r="AQ46" s="122"/>
-      <c r="AR46" s="122"/>
+      <c r="AQ46" s="108"/>
+      <c r="AR46" s="108"/>
       <c r="AS46" s="85"/>
-      <c r="AT46" s="122"/>
+      <c r="AT46" s="108"/>
     </row>
     <row r="47" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="104"/>
+      <c r="H47" s="127"/>
       <c r="I47" s="13" t="str">
         <f>H37</f>
         <v>b - a</v>
       </c>
-      <c r="J47" s="105"/>
-      <c r="K47" s="109"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="132"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="P47" s="76">
@@ -4064,80 +4824,80 @@
         <f>L36</f>
         <v>104100 - x</v>
       </c>
-      <c r="J48" s="105" t="s">
+      <c r="J48" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="K48" s="109">
+      <c r="K48" s="132">
         <f>K46</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
-      <c r="P48" s="1">
+      <c r="P48" s="76">
         <v>0</v>
       </c>
-      <c r="Q48" s="117">
+      <c r="Q48" s="141">
         <f>$H$5</f>
         <v>101150</v>
       </c>
-      <c r="R48" s="117"/>
+      <c r="R48" s="141"/>
       <c r="S48" s="88"/>
-      <c r="T48" s="117">
+      <c r="T48" s="141">
         <f>$K$5</f>
         <v>101600</v>
       </c>
-      <c r="U48" s="117"/>
-      <c r="W48" s="117">
+      <c r="U48" s="141"/>
+      <c r="W48" s="141">
         <f>$I$5</f>
         <v>103100</v>
       </c>
-      <c r="X48" s="117"/>
-      <c r="Z48" s="1">
+      <c r="X48" s="141"/>
+      <c r="Z48" s="76">
         <v>0</v>
       </c>
-      <c r="AA48" s="117">
+      <c r="AA48" s="141">
         <f>$H$20</f>
         <v>99120</v>
       </c>
-      <c r="AB48" s="117"/>
+      <c r="AB48" s="141"/>
       <c r="AC48" s="88"/>
-      <c r="AD48" s="117">
+      <c r="AD48" s="141">
         <f>$K$20</f>
         <v>99250</v>
       </c>
-      <c r="AE48" s="117"/>
-      <c r="AG48" s="117">
+      <c r="AE48" s="141"/>
+      <c r="AG48" s="141">
         <f>$I$20</f>
         <v>99510</v>
       </c>
-      <c r="AH48" s="117"/>
-      <c r="AK48" s="1">
+      <c r="AH48" s="141"/>
+      <c r="AK48" s="76">
         <v>0</v>
       </c>
-      <c r="AM48" s="117">
+      <c r="AM48" s="141">
         <f>$H$33</f>
         <v>100250</v>
       </c>
-      <c r="AN48" s="117"/>
+      <c r="AN48" s="141"/>
       <c r="AO48" s="88"/>
-      <c r="AP48" s="131">
+      <c r="AP48" s="146">
         <f>K75</f>
         <v>101135.5</v>
       </c>
-      <c r="AQ48" s="131"/>
-      <c r="AS48" s="127">
+      <c r="AQ48" s="146"/>
+      <c r="AS48" s="144">
         <f>$I$33</f>
         <v>104100</v>
       </c>
-      <c r="AT48" s="127"/>
+      <c r="AT48" s="144"/>
     </row>
     <row r="49" spans="7:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I49" s="61">
         <f>L37</f>
         <v>3850</v>
       </c>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
     </row>
@@ -4160,37 +4920,37 @@
         <f>I49</f>
         <v>3850</v>
       </c>
-      <c r="Q50" s="116" t="s">
+      <c r="Q50" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="R50" s="116"/>
-      <c r="S50" s="116"/>
-      <c r="T50" s="116"/>
-      <c r="U50" s="116"/>
-      <c r="V50" s="116"/>
-      <c r="W50" s="116"/>
-      <c r="X50" s="116"/>
-      <c r="AA50" s="118" t="s">
+      <c r="R50" s="142"/>
+      <c r="S50" s="142"/>
+      <c r="T50" s="142"/>
+      <c r="U50" s="142"/>
+      <c r="V50" s="142"/>
+      <c r="W50" s="142"/>
+      <c r="X50" s="142"/>
+      <c r="AA50" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="AB50" s="118"/>
-      <c r="AC50" s="118"/>
-      <c r="AD50" s="118"/>
-      <c r="AE50" s="118"/>
-      <c r="AF50" s="118"/>
-      <c r="AG50" s="118"/>
-      <c r="AH50" s="118"/>
-      <c r="AL50" s="119" t="s">
+      <c r="AB50" s="143"/>
+      <c r="AC50" s="143"/>
+      <c r="AD50" s="143"/>
+      <c r="AE50" s="143"/>
+      <c r="AF50" s="143"/>
+      <c r="AG50" s="143"/>
+      <c r="AH50" s="143"/>
+      <c r="AL50" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="AM50" s="119"/>
-      <c r="AN50" s="119"/>
-      <c r="AO50" s="119"/>
-      <c r="AP50" s="119"/>
-      <c r="AQ50" s="119"/>
-      <c r="AR50" s="119"/>
-      <c r="AS50" s="119"/>
-      <c r="AT50" s="119"/>
+      <c r="AM50" s="147"/>
+      <c r="AN50" s="147"/>
+      <c r="AO50" s="147"/>
+      <c r="AP50" s="147"/>
+      <c r="AQ50" s="147"/>
+      <c r="AR50" s="147"/>
+      <c r="AS50" s="147"/>
+      <c r="AT50" s="147"/>
     </row>
     <row r="51" spans="7:47" x14ac:dyDescent="0.25">
       <c r="I51" s="14" t="str">
@@ -4263,13 +5023,13 @@
         <v>55</v>
       </c>
       <c r="M55" s="13"/>
-      <c r="P55" s="87">
+      <c r="P55" s="101">
         <v>1</v>
       </c>
-      <c r="Z55" s="125" t="s">
+      <c r="Z55" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="AA55" s="125"/>
+      <c r="AA55" s="150"/>
     </row>
     <row r="56" spans="7:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G56" s="50" t="s">
@@ -4291,18 +5051,18 @@
       <c r="X56" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="Y56" s="122"/>
+      <c r="Y56" s="108"/>
       <c r="Z56" s="76">
         <v>0.9</v>
       </c>
       <c r="AA56" s="78"/>
-      <c r="AB56" s="122"/>
-      <c r="AC56" s="122"/>
-      <c r="AD56" s="122"/>
-      <c r="AE56" s="122"/>
-      <c r="AF56" s="122"/>
-      <c r="AG56" s="122"/>
-      <c r="AH56" s="122"/>
+      <c r="AB56" s="108"/>
+      <c r="AC56" s="108"/>
+      <c r="AD56" s="108"/>
+      <c r="AE56" s="108"/>
+      <c r="AF56" s="108"/>
+      <c r="AG56" s="108"/>
+      <c r="AH56" s="108"/>
       <c r="AK56" s="76">
         <v>0.8</v>
       </c>
@@ -4310,23 +5070,23 @@
     </row>
     <row r="57" spans="7:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G57" s="13"/>
-      <c r="H57" s="104" t="s">
+      <c r="H57" s="127" t="s">
         <v>65</v>
       </c>
       <c r="I57" s="48" t="str">
         <f>H36</f>
         <v>b - x</v>
       </c>
-      <c r="J57" s="105" t="s">
+      <c r="J57" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="K57" s="106">
+      <c r="K57" s="129">
         <f>H56</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
-      <c r="P57" s="121">
+      <c r="P57" s="140">
         <v>0.6</v>
       </c>
       <c r="Q57" s="78"/>
@@ -4336,7 +5096,7 @@
       <c r="U57" s="83"/>
       <c r="V57" s="83"/>
       <c r="W57" s="84"/>
-      <c r="Z57" s="124">
+      <c r="Z57" s="145">
         <v>0.67</v>
       </c>
       <c r="AA57" s="78"/>
@@ -4346,7 +5106,7 @@
       <c r="AE57" s="83"/>
       <c r="AF57" s="83"/>
       <c r="AG57" s="84"/>
-      <c r="AH57" s="122"/>
+      <c r="AH57" s="108"/>
       <c r="AK57" s="103">
         <v>0.77</v>
       </c>
@@ -4358,41 +5118,41 @@
     </row>
     <row r="58" spans="7:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G58" s="13"/>
-      <c r="H58" s="104"/>
+      <c r="H58" s="127"/>
       <c r="I58" s="13" t="str">
         <f>H37</f>
         <v>b - a</v>
       </c>
-      <c r="J58" s="105"/>
-      <c r="K58" s="106"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="129"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
-      <c r="P58" s="124"/>
+      <c r="P58" s="145"/>
       <c r="Q58" s="78"/>
       <c r="R58" s="80"/>
-      <c r="S58" s="122"/>
-      <c r="T58" s="122"/>
+      <c r="S58" s="108"/>
+      <c r="T58" s="108"/>
       <c r="W58" s="85"/>
-      <c r="Z58" s="124"/>
+      <c r="Z58" s="145"/>
       <c r="AA58" s="91"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="93"/>
       <c r="AD58" s="98"/>
-      <c r="AE58" s="122"/>
-      <c r="AF58" s="122"/>
+      <c r="AE58" s="108"/>
+      <c r="AF58" s="108"/>
       <c r="AG58" s="85"/>
-      <c r="AH58" s="122"/>
-      <c r="AI58" s="122"/>
-      <c r="AK58" s="96"/>
+      <c r="AH58" s="108"/>
+      <c r="AI58" s="108"/>
+      <c r="AK58" s="103"/>
       <c r="AL58" s="78"/>
-      <c r="AM58" s="122"/>
+      <c r="AM58" s="108"/>
       <c r="AN58" s="82"/>
       <c r="AO58" s="83"/>
       <c r="AP58" s="83"/>
       <c r="AQ58" s="83"/>
       <c r="AR58" s="83"/>
       <c r="AS58" s="84"/>
-      <c r="AT58" s="122"/>
+      <c r="AT58" s="108"/>
     </row>
     <row r="59" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G59" s="13"/>
@@ -4401,10 +5161,10 @@
         <f>L36</f>
         <v>104100 - x</v>
       </c>
-      <c r="J59" s="105" t="s">
+      <c r="J59" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="K59" s="106">
+      <c r="K59" s="129">
         <f>K57</f>
         <v>0.66666666666666663</v>
       </c>
@@ -4415,33 +5175,33 @@
       </c>
       <c r="Q59" s="78"/>
       <c r="R59" s="80"/>
-      <c r="S59" s="122"/>
-      <c r="T59" s="122"/>
+      <c r="S59" s="108"/>
+      <c r="T59" s="108"/>
       <c r="W59" s="85"/>
       <c r="Z59" s="76">
         <v>0.5</v>
       </c>
       <c r="AA59" s="78"/>
       <c r="AB59" s="80"/>
-      <c r="AC59" s="122"/>
+      <c r="AC59" s="108"/>
       <c r="AD59" s="99"/>
-      <c r="AE59" s="122"/>
-      <c r="AF59" s="122"/>
+      <c r="AE59" s="108"/>
+      <c r="AF59" s="108"/>
       <c r="AG59" s="85"/>
-      <c r="AH59" s="122"/>
-      <c r="AI59" s="122"/>
+      <c r="AH59" s="108"/>
+      <c r="AI59" s="108"/>
       <c r="AK59" s="76">
         <v>0.5</v>
       </c>
       <c r="AL59" s="78"/>
-      <c r="AM59" s="122"/>
+      <c r="AM59" s="108"/>
       <c r="AN59" s="80"/>
-      <c r="AO59" s="122"/>
-      <c r="AP59" s="122"/>
-      <c r="AQ59" s="122"/>
-      <c r="AR59" s="122"/>
+      <c r="AO59" s="108"/>
+      <c r="AP59" s="108"/>
+      <c r="AQ59" s="108"/>
+      <c r="AR59" s="108"/>
       <c r="AS59" s="85"/>
-      <c r="AT59" s="122"/>
+      <c r="AT59" s="108"/>
     </row>
     <row r="60" spans="7:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G60" s="13"/>
@@ -4450,40 +5210,40 @@
         <f>L37</f>
         <v>3850</v>
       </c>
-      <c r="J60" s="105"/>
-      <c r="K60" s="106"/>
+      <c r="J60" s="128"/>
+      <c r="K60" s="129"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
-      <c r="P60" s="124">
+      <c r="P60" s="145">
         <v>0.23</v>
       </c>
       <c r="Q60" s="78"/>
       <c r="R60" s="80"/>
-      <c r="S60" s="122"/>
-      <c r="T60" s="122"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108"/>
       <c r="W60" s="85"/>
       <c r="Z60" s="103"/>
       <c r="AA60" s="78"/>
       <c r="AB60" s="80"/>
-      <c r="AC60" s="122"/>
+      <c r="AC60" s="108"/>
       <c r="AD60" s="99"/>
-      <c r="AE60" s="122"/>
-      <c r="AF60" s="122"/>
+      <c r="AE60" s="108"/>
+      <c r="AF60" s="108"/>
       <c r="AG60" s="85"/>
-      <c r="AH60" s="122"/>
-      <c r="AI60" s="122"/>
-      <c r="AK60" s="121">
+      <c r="AH60" s="108"/>
+      <c r="AI60" s="108"/>
+      <c r="AK60" s="140">
         <v>0.23</v>
       </c>
       <c r="AL60" s="78"/>
-      <c r="AM60" s="122"/>
+      <c r="AM60" s="108"/>
       <c r="AN60" s="80"/>
-      <c r="AO60" s="122"/>
-      <c r="AP60" s="122"/>
-      <c r="AQ60" s="122"/>
-      <c r="AR60" s="122"/>
+      <c r="AO60" s="108"/>
+      <c r="AP60" s="108"/>
+      <c r="AQ60" s="108"/>
+      <c r="AR60" s="108"/>
       <c r="AS60" s="85"/>
-      <c r="AT60" s="122"/>
+      <c r="AT60" s="108"/>
     </row>
     <row r="61" spans="7:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G61" s="13"/>
@@ -4506,7 +5266,7 @@
         <f>I60</f>
         <v>3850</v>
       </c>
-      <c r="P61" s="124"/>
+      <c r="P61" s="145"/>
       <c r="Q61" s="91"/>
       <c r="R61" s="92"/>
       <c r="S61" s="93"/>
@@ -4515,25 +5275,25 @@
       <c r="Z61" s="103">
         <v>0.3</v>
       </c>
-      <c r="AA61" s="123"/>
+      <c r="AA61" s="109"/>
       <c r="AB61" s="80"/>
-      <c r="AC61" s="122"/>
+      <c r="AC61" s="108"/>
       <c r="AD61" s="99"/>
-      <c r="AE61" s="122"/>
-      <c r="AF61" s="122"/>
+      <c r="AE61" s="108"/>
+      <c r="AF61" s="108"/>
       <c r="AG61" s="85"/>
-      <c r="AH61" s="122"/>
-      <c r="AI61" s="122"/>
-      <c r="AK61" s="121"/>
+      <c r="AH61" s="108"/>
+      <c r="AI61" s="108"/>
+      <c r="AK61" s="140"/>
       <c r="AL61" s="97"/>
       <c r="AM61" s="93"/>
       <c r="AN61" s="92"/>
       <c r="AO61" s="93"/>
       <c r="AP61" s="98"/>
-      <c r="AQ61" s="122"/>
-      <c r="AR61" s="122"/>
+      <c r="AQ61" s="108"/>
+      <c r="AR61" s="108"/>
       <c r="AS61" s="85"/>
-      <c r="AT61" s="122"/>
+      <c r="AT61" s="108"/>
     </row>
     <row r="62" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G62" s="13"/>
@@ -4550,31 +5310,29 @@
       </c>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
-      <c r="P62" s="76"/>
       <c r="Q62" s="78"/>
       <c r="R62" s="80"/>
-      <c r="S62" s="122"/>
+      <c r="S62" s="108"/>
       <c r="T62" s="99"/>
       <c r="W62" s="85"/>
-      <c r="Z62" s="76"/>
       <c r="AA62" s="78"/>
       <c r="AB62" s="80"/>
-      <c r="AC62" s="122"/>
+      <c r="AC62" s="108"/>
       <c r="AD62" s="99"/>
-      <c r="AE62" s="122"/>
-      <c r="AF62" s="122"/>
+      <c r="AE62" s="108"/>
+      <c r="AF62" s="108"/>
       <c r="AG62" s="85"/>
-      <c r="AH62" s="122"/>
-      <c r="AI62" s="122"/>
+      <c r="AH62" s="108"/>
+      <c r="AI62" s="108"/>
       <c r="AL62" s="78"/>
-      <c r="AM62" s="122"/>
+      <c r="AM62" s="108"/>
       <c r="AN62" s="80"/>
-      <c r="AO62" s="122"/>
+      <c r="AO62" s="108"/>
       <c r="AP62" s="99"/>
-      <c r="AQ62" s="122"/>
-      <c r="AR62" s="122"/>
+      <c r="AQ62" s="108"/>
+      <c r="AR62" s="108"/>
       <c r="AS62" s="85"/>
-      <c r="AT62" s="122"/>
+      <c r="AT62" s="108"/>
     </row>
     <row r="63" spans="7:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G63" s="49">
@@ -4618,7 +5376,7 @@
       <c r="AF63" s="77"/>
       <c r="AG63" s="86"/>
       <c r="AH63" s="77"/>
-      <c r="AI63" s="122"/>
+      <c r="AI63" s="108"/>
       <c r="AK63" s="76">
         <v>0.1</v>
       </c>
@@ -4647,63 +5405,63 @@
       </c>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
-      <c r="P64" s="1">
+      <c r="P64" s="76">
         <v>0</v>
       </c>
-      <c r="Q64" s="117">
+      <c r="Q64" s="141">
         <f>$H$5</f>
         <v>101150</v>
       </c>
-      <c r="R64" s="117"/>
+      <c r="R64" s="141"/>
       <c r="S64" s="88"/>
-      <c r="T64" s="117">
+      <c r="T64" s="141">
         <f>$K$5</f>
         <v>101600</v>
       </c>
-      <c r="U64" s="117"/>
-      <c r="W64" s="117">
+      <c r="U64" s="141"/>
+      <c r="W64" s="141">
         <f>$I$5</f>
         <v>103100</v>
       </c>
-      <c r="X64" s="117"/>
-      <c r="Z64" s="1">
+      <c r="X64" s="141"/>
+      <c r="Z64" s="76">
         <v>0</v>
       </c>
-      <c r="AA64" s="117">
+      <c r="AA64" s="141">
         <f>$H$20</f>
         <v>99120</v>
       </c>
-      <c r="AB64" s="117"/>
+      <c r="AB64" s="141"/>
       <c r="AC64" s="88"/>
-      <c r="AD64" s="117">
+      <c r="AD64" s="141">
         <f>$K$20</f>
         <v>99250</v>
       </c>
-      <c r="AE64" s="117"/>
-      <c r="AG64" s="117">
+      <c r="AE64" s="141"/>
+      <c r="AG64" s="141">
         <f>$I$20</f>
         <v>99510</v>
       </c>
-      <c r="AH64" s="117"/>
-      <c r="AK64" s="1">
+      <c r="AH64" s="141"/>
+      <c r="AK64" s="76">
         <v>0</v>
       </c>
-      <c r="AM64" s="117">
+      <c r="AM64" s="141">
         <f>$H$33</f>
         <v>100250</v>
       </c>
-      <c r="AN64" s="117"/>
+      <c r="AN64" s="141"/>
       <c r="AO64" s="88"/>
-      <c r="AP64" s="131">
+      <c r="AP64" s="146">
         <f>K86</f>
         <v>101135.5</v>
       </c>
-      <c r="AQ64" s="131"/>
-      <c r="AS64" s="127">
+      <c r="AQ64" s="146"/>
+      <c r="AS64" s="144">
         <f>$I$33</f>
         <v>104100</v>
       </c>
-      <c r="AT64" s="127"/>
+      <c r="AT64" s="144"/>
     </row>
     <row r="66" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G66" s="59" t="s">
@@ -4727,37 +5485,37 @@
         <v>55</v>
       </c>
       <c r="M66" s="13"/>
-      <c r="Q66" s="116" t="s">
+      <c r="Q66" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="R66" s="116"/>
-      <c r="S66" s="116"/>
-      <c r="T66" s="116"/>
-      <c r="U66" s="116"/>
-      <c r="V66" s="116"/>
-      <c r="W66" s="116"/>
-      <c r="X66" s="116"/>
-      <c r="AA66" s="118" t="s">
+      <c r="R66" s="142"/>
+      <c r="S66" s="142"/>
+      <c r="T66" s="142"/>
+      <c r="U66" s="142"/>
+      <c r="V66" s="142"/>
+      <c r="W66" s="142"/>
+      <c r="X66" s="142"/>
+      <c r="AA66" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="AB66" s="118"/>
-      <c r="AC66" s="118"/>
-      <c r="AD66" s="118"/>
-      <c r="AE66" s="118"/>
-      <c r="AF66" s="118"/>
-      <c r="AG66" s="118"/>
-      <c r="AH66" s="118"/>
-      <c r="AL66" s="119" t="s">
+      <c r="AB66" s="143"/>
+      <c r="AC66" s="143"/>
+      <c r="AD66" s="143"/>
+      <c r="AE66" s="143"/>
+      <c r="AF66" s="143"/>
+      <c r="AG66" s="143"/>
+      <c r="AH66" s="143"/>
+      <c r="AL66" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="AM66" s="119"/>
-      <c r="AN66" s="119"/>
-      <c r="AO66" s="119"/>
-      <c r="AP66" s="119"/>
-      <c r="AQ66" s="119"/>
-      <c r="AR66" s="119"/>
-      <c r="AS66" s="119"/>
-      <c r="AT66" s="119"/>
+      <c r="AM66" s="147"/>
+      <c r="AN66" s="147"/>
+      <c r="AO66" s="147"/>
+      <c r="AP66" s="147"/>
+      <c r="AQ66" s="147"/>
+      <c r="AR66" s="147"/>
+      <c r="AS66" s="147"/>
+      <c r="AT66" s="147"/>
     </row>
     <row r="67" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G67" s="50" t="s">
@@ -4775,17 +5533,17 @@
     </row>
     <row r="68" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G68" s="13"/>
-      <c r="H68" s="104" t="s">
+      <c r="H68" s="127" t="s">
         <v>68</v>
       </c>
       <c r="I68" s="48" t="str">
         <f>H41</f>
         <v>x - a</v>
       </c>
-      <c r="J68" s="105" t="s">
+      <c r="J68" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="K68" s="106">
+      <c r="K68" s="129">
         <f>H67</f>
         <v>0.23076923076923078</v>
       </c>
@@ -4794,13 +5552,13 @@
     </row>
     <row r="69" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G69" s="13"/>
-      <c r="H69" s="104"/>
+      <c r="H69" s="127"/>
       <c r="I69" s="13" t="str">
         <f>H42</f>
         <v>b - a</v>
       </c>
-      <c r="J69" s="105"/>
-      <c r="K69" s="106"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="129"/>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
     </row>
@@ -4811,10 +5569,10 @@
         <f>L41</f>
         <v>x - 100250</v>
       </c>
-      <c r="J70" s="105" t="s">
+      <c r="J70" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="K70" s="106">
+      <c r="K70" s="129">
         <f>K68</f>
         <v>0.23076923076923078</v>
       </c>
@@ -4828,8 +5586,8 @@
         <f>L42</f>
         <v>3850</v>
       </c>
-      <c r="J71" s="105"/>
-      <c r="K71" s="106"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="129"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
     </row>
@@ -4854,47 +5612,47 @@
         <f>I71</f>
         <v>3850</v>
       </c>
-      <c r="O72" s="133" t="s">
+      <c r="O72" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="P72" s="133" t="s">
+      <c r="P72" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="Q72" s="135" t="s">
+      <c r="Q72" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="R72" s="135"/>
-      <c r="S72" s="135"/>
-      <c r="T72" s="136"/>
-      <c r="U72" s="136" t="s">
+      <c r="R72" s="154"/>
+      <c r="S72" s="154"/>
+      <c r="T72" s="111"/>
+      <c r="U72" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="V72" s="137"/>
-      <c r="W72" s="142" t="s">
+      <c r="V72" s="112"/>
+      <c r="W72" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="X72" s="142"/>
-      <c r="Y72" s="142"/>
-      <c r="Z72" s="136"/>
-      <c r="AA72" s="136" t="s">
+      <c r="X72" s="155"/>
+      <c r="Y72" s="155"/>
+      <c r="Z72" s="161"/>
+      <c r="AA72" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="AB72" s="137"/>
-      <c r="AC72" s="135" t="s">
+      <c r="AB72" s="112"/>
+      <c r="AC72" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="AD72" s="135"/>
-      <c r="AE72" s="135"/>
-      <c r="AF72" s="136"/>
-      <c r="AG72" s="136" t="s">
+      <c r="AD72" s="154"/>
+      <c r="AE72" s="154"/>
+      <c r="AF72" s="111"/>
+      <c r="AG72" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="AH72" s="137"/>
-      <c r="AI72" s="135" t="s">
+      <c r="AH72" s="112"/>
+      <c r="AI72" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="AJ72" s="135"/>
-      <c r="AK72" s="135"/>
+      <c r="AJ72" s="154"/>
+      <c r="AK72" s="154"/>
       <c r="AL72" s="66"/>
       <c r="AM72" s="66"/>
     </row>
@@ -4913,43 +5671,43 @@
       </c>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
-      <c r="O73" s="133"/>
-      <c r="P73" s="133"/>
-      <c r="Q73" s="132" t="s">
+      <c r="O73" s="110"/>
+      <c r="P73" s="159"/>
+      <c r="Q73" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="R73" s="132"/>
-      <c r="S73" s="132"/>
-      <c r="T73" s="138"/>
-      <c r="U73" s="138" t="s">
+      <c r="R73" s="153"/>
+      <c r="S73" s="153"/>
+      <c r="T73" s="113"/>
+      <c r="U73" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="V73" s="139"/>
-      <c r="W73" s="132" t="s">
+      <c r="V73" s="114"/>
+      <c r="W73" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="X73" s="132"/>
-      <c r="Y73" s="132"/>
-      <c r="Z73" s="138"/>
-      <c r="AA73" s="138" t="s">
+      <c r="X73" s="153"/>
+      <c r="Y73" s="153"/>
+      <c r="Z73" s="162"/>
+      <c r="AA73" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="AB73" s="139"/>
-      <c r="AC73" s="132" t="s">
+      <c r="AB73" s="114"/>
+      <c r="AC73" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="AD73" s="132"/>
-      <c r="AE73" s="132"/>
-      <c r="AF73" s="138"/>
-      <c r="AG73" s="138" t="s">
+      <c r="AD73" s="153"/>
+      <c r="AE73" s="153"/>
+      <c r="AF73" s="113"/>
+      <c r="AG73" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="AH73" s="139"/>
-      <c r="AI73" s="132" t="s">
+      <c r="AH73" s="114"/>
+      <c r="AI73" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="AJ73" s="132"/>
-      <c r="AK73" s="132"/>
+      <c r="AJ73" s="153"/>
+      <c r="AK73" s="153"/>
       <c r="AL73" s="66"/>
       <c r="AM73" s="66"/>
     </row>
@@ -4973,29 +5731,29 @@
         <f>K73</f>
         <v>885.5</v>
       </c>
-      <c r="O74" s="133"/>
-      <c r="P74" s="133"/>
-      <c r="Q74" s="140"/>
-      <c r="R74" s="140"/>
-      <c r="S74" s="140"/>
-      <c r="T74" s="140"/>
-      <c r="U74" s="140"/>
-      <c r="V74" s="140"/>
-      <c r="W74" s="140"/>
-      <c r="X74" s="140"/>
-      <c r="Y74" s="140"/>
-      <c r="Z74" s="140"/>
-      <c r="AA74" s="140"/>
-      <c r="AB74" s="140"/>
-      <c r="AC74" s="140"/>
-      <c r="AD74" s="140"/>
-      <c r="AE74" s="140"/>
-      <c r="AF74" s="140"/>
-      <c r="AG74" s="140"/>
-      <c r="AH74" s="140"/>
-      <c r="AI74" s="140"/>
-      <c r="AJ74" s="140"/>
-      <c r="AK74" s="140"/>
+      <c r="O74" s="110"/>
+      <c r="P74" s="159"/>
+      <c r="Q74" s="115"/>
+      <c r="R74" s="115"/>
+      <c r="S74" s="115"/>
+      <c r="T74" s="115"/>
+      <c r="U74" s="115"/>
+      <c r="V74" s="115"/>
+      <c r="W74" s="115"/>
+      <c r="X74" s="115"/>
+      <c r="Y74" s="115"/>
+      <c r="Z74" s="160"/>
+      <c r="AA74" s="115"/>
+      <c r="AB74" s="115"/>
+      <c r="AC74" s="115"/>
+      <c r="AD74" s="115"/>
+      <c r="AE74" s="115"/>
+      <c r="AF74" s="115"/>
+      <c r="AG74" s="115"/>
+      <c r="AH74" s="115"/>
+      <c r="AI74" s="115"/>
+      <c r="AJ74" s="115"/>
+      <c r="AK74" s="160"/>
     </row>
     <row r="75" spans="7:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G75" s="13"/>
@@ -5012,92 +5770,92 @@
       </c>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
-      <c r="O75" s="133"/>
-      <c r="P75" s="133" t="s">
+      <c r="O75" s="110"/>
+      <c r="P75" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="Q75" s="135" t="str">
+      <c r="Q75" s="154" t="str">
         <f>"( " &amp;TRUNC(H45,2) &amp;" . " &amp;I53 &amp; " ) "</f>
         <v xml:space="preserve">( 0.33 . 102829.5 ) </v>
       </c>
-      <c r="R75" s="135"/>
-      <c r="S75" s="135"/>
-      <c r="T75" s="135"/>
-      <c r="U75" s="136" t="s">
+      <c r="R75" s="154"/>
+      <c r="S75" s="154"/>
+      <c r="T75" s="154"/>
+      <c r="U75" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="V75" s="135" t="str">
+      <c r="V75" s="154" t="str">
         <f>"( " &amp;TRUNC(H56,2) &amp;" . " &amp;I64 &amp; " ) "</f>
         <v xml:space="preserve">( 0.66 . 101520.5 ) </v>
       </c>
-      <c r="W75" s="135"/>
-      <c r="X75" s="135"/>
-      <c r="Y75" s="135"/>
-      <c r="Z75" s="136" t="s">
+      <c r="W75" s="154"/>
+      <c r="X75" s="154"/>
+      <c r="Y75" s="154"/>
+      <c r="Z75" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="AA75" s="135" t="str">
+      <c r="AA75" s="154" t="str">
         <f>"( " &amp;TRUNC(H67,2) &amp;" . " &amp;K75 &amp; " ) "</f>
         <v xml:space="preserve">( 0.23 . 101135.5 ) </v>
       </c>
-      <c r="AB75" s="135"/>
-      <c r="AC75" s="135"/>
-      <c r="AD75" s="135"/>
-      <c r="AE75" s="136" t="s">
+      <c r="AB75" s="154"/>
+      <c r="AC75" s="154"/>
+      <c r="AD75" s="154"/>
+      <c r="AE75" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="AF75" s="135" t="str">
+      <c r="AF75" s="154" t="str">
         <f>"( " &amp;TRUNC(H78,2) &amp;" . " &amp;K86 &amp; " ) "</f>
         <v xml:space="preserve">( 0.23 . 101135.5 ) </v>
       </c>
-      <c r="AG75" s="135"/>
-      <c r="AH75" s="135"/>
-      <c r="AI75" s="135"/>
-      <c r="AJ75" s="140"/>
-      <c r="AK75" s="140"/>
+      <c r="AG75" s="154"/>
+      <c r="AH75" s="154"/>
+      <c r="AI75" s="154"/>
+      <c r="AJ75" s="115"/>
+      <c r="AK75" s="160"/>
     </row>
     <row r="76" spans="7:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O76" s="140"/>
-      <c r="P76" s="140"/>
-      <c r="Q76" s="143">
+      <c r="O76" s="115"/>
+      <c r="P76" s="160"/>
+      <c r="Q76" s="156">
         <f>TRUNC(H45,2)</f>
         <v>0.33</v>
       </c>
-      <c r="R76" s="144"/>
-      <c r="S76" s="144"/>
-      <c r="T76" s="144"/>
-      <c r="U76" s="138" t="s">
+      <c r="R76" s="157"/>
+      <c r="S76" s="157"/>
+      <c r="T76" s="157"/>
+      <c r="U76" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="V76" s="143">
+      <c r="V76" s="156">
         <f>TRUNC(H56,2)</f>
         <v>0.66</v>
       </c>
-      <c r="W76" s="144"/>
-      <c r="X76" s="144"/>
-      <c r="Y76" s="144"/>
-      <c r="Z76" s="138" t="s">
+      <c r="W76" s="157"/>
+      <c r="X76" s="157"/>
+      <c r="Y76" s="157"/>
+      <c r="Z76" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="AA76" s="143">
+      <c r="AA76" s="156">
         <f>TRUNC(H67,2)</f>
         <v>0.23</v>
       </c>
-      <c r="AB76" s="144"/>
-      <c r="AC76" s="144"/>
-      <c r="AD76" s="144"/>
-      <c r="AE76" s="138" t="s">
+      <c r="AB76" s="157"/>
+      <c r="AC76" s="157"/>
+      <c r="AD76" s="157"/>
+      <c r="AE76" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="AF76" s="143">
+      <c r="AF76" s="156">
         <f>TRUNC(H78,2)</f>
         <v>0.23</v>
       </c>
-      <c r="AG76" s="144"/>
-      <c r="AH76" s="144"/>
-      <c r="AI76" s="144"/>
-      <c r="AJ76" s="140"/>
-      <c r="AK76" s="140"/>
+      <c r="AG76" s="157"/>
+      <c r="AH76" s="157"/>
+      <c r="AI76" s="157"/>
+      <c r="AJ76" s="115"/>
+      <c r="AK76" s="160"/>
     </row>
     <row r="77" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G77" s="59" t="s">
@@ -5135,100 +5893,100 @@
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
-      <c r="P78" s="133" t="s">
+      <c r="P78" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="Q78" s="134">
+      <c r="Q78" s="158">
         <v>33933.730000000003</v>
       </c>
-      <c r="R78" s="134"/>
-      <c r="S78" s="134"/>
-      <c r="T78" s="141" t="s">
+      <c r="R78" s="158"/>
+      <c r="S78" s="158"/>
+      <c r="T78" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="U78" s="134">
+      <c r="U78" s="158">
         <v>67003.53</v>
       </c>
-      <c r="V78" s="134"/>
-      <c r="W78" s="134"/>
-      <c r="X78" s="141" t="s">
+      <c r="V78" s="158"/>
+      <c r="W78" s="158"/>
+      <c r="X78" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="Y78" s="134">
+      <c r="Y78" s="158">
         <v>23261.165000000001</v>
       </c>
-      <c r="Z78" s="134"/>
-      <c r="AA78" s="134"/>
-      <c r="AB78" s="141" t="s">
+      <c r="Z78" s="158"/>
+      <c r="AA78" s="158"/>
+      <c r="AB78" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="AC78" s="134">
+      <c r="AC78" s="158">
         <v>23261.165000000001</v>
       </c>
-      <c r="AD78" s="134"/>
-      <c r="AE78" s="134"/>
+      <c r="AD78" s="158"/>
+      <c r="AE78" s="158"/>
     </row>
     <row r="79" spans="7:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G79" s="13"/>
-      <c r="H79" s="104" t="s">
+      <c r="H79" s="127" t="s">
         <v>70</v>
       </c>
       <c r="I79" s="48" t="str">
         <f>H41</f>
         <v>x - a</v>
       </c>
-      <c r="J79" s="105" t="s">
+      <c r="J79" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="K79" s="106">
+      <c r="K79" s="129">
         <f>H78</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
-      <c r="Q79" s="143">
+      <c r="Q79" s="156">
         <f>Q76</f>
         <v>0.33</v>
       </c>
-      <c r="R79" s="143"/>
-      <c r="S79" s="143"/>
-      <c r="T79" s="145" t="s">
+      <c r="R79" s="156"/>
+      <c r="S79" s="156"/>
+      <c r="T79" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="U79" s="143">
+      <c r="U79" s="156">
         <f>V76</f>
         <v>0.66</v>
       </c>
-      <c r="V79" s="143"/>
-      <c r="W79" s="143"/>
-      <c r="X79" s="145" t="s">
+      <c r="V79" s="156"/>
+      <c r="W79" s="156"/>
+      <c r="X79" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="Y79" s="143">
+      <c r="Y79" s="156">
         <f>AA76</f>
         <v>0.23</v>
       </c>
-      <c r="Z79" s="144"/>
-      <c r="AA79" s="144"/>
-      <c r="AB79" s="145" t="s">
+      <c r="Z79" s="157"/>
+      <c r="AA79" s="157"/>
+      <c r="AB79" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="AC79" s="143">
+      <c r="AC79" s="156">
         <f>AF76</f>
         <v>0.23</v>
       </c>
-      <c r="AD79" s="144"/>
-      <c r="AE79" s="144"/>
+      <c r="AD79" s="157"/>
+      <c r="AE79" s="157"/>
     </row>
     <row r="80" spans="7:46" x14ac:dyDescent="0.25">
       <c r="G80" s="13"/>
-      <c r="H80" s="104"/>
+      <c r="H80" s="127"/>
       <c r="I80" s="13" t="str">
         <f>H42</f>
         <v>b - a</v>
       </c>
-      <c r="J80" s="105"/>
-      <c r="K80" s="106"/>
+      <c r="J80" s="128"/>
+      <c r="K80" s="129"/>
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
     </row>
@@ -5239,25 +5997,25 @@
         <f>L41</f>
         <v>x - 100250</v>
       </c>
-      <c r="J81" s="105" t="s">
+      <c r="J81" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="K81" s="106">
+      <c r="K81" s="129">
         <f>K79</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
-      <c r="P81" s="133" t="s">
+      <c r="P81" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="Q81" s="134">
+      <c r="Q81" s="158">
         <f>Q78+U78+Y78+AC78</f>
         <v>147459.59000000003</v>
       </c>
-      <c r="R81" s="134"/>
-      <c r="S81" s="134"/>
-      <c r="T81" s="141"/>
+      <c r="R81" s="158"/>
+      <c r="S81" s="158"/>
+      <c r="T81" s="116"/>
     </row>
     <row r="82" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G82" s="13"/>
@@ -5266,16 +6024,16 @@
         <f>L42</f>
         <v>3850</v>
       </c>
-      <c r="J82" s="105"/>
-      <c r="K82" s="106"/>
+      <c r="J82" s="128"/>
+      <c r="K82" s="129"/>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
-      <c r="Q82" s="143">
+      <c r="Q82" s="156">
         <f>Q79+U79+Y79+AC79</f>
         <v>1.45</v>
       </c>
-      <c r="R82" s="143"/>
-      <c r="S82" s="143"/>
+      <c r="R82" s="156"/>
+      <c r="S82" s="156"/>
     </row>
     <row r="83" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G83" s="13"/>
@@ -5314,14 +6072,14 @@
       </c>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
-      <c r="P84" s="133" t="s">
+      <c r="P84" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="Q84" s="134">
+      <c r="Q84" s="158">
         <v>101696.26</v>
       </c>
-      <c r="R84" s="134"/>
-      <c r="S84" s="134"/>
+      <c r="R84" s="158"/>
+      <c r="S84" s="158"/>
     </row>
     <row r="85" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G85" s="49"/>
@@ -5362,7 +6120,6 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="Q82:S82"/>
     <mergeCell ref="Q84:S84"/>
     <mergeCell ref="Y78:AA78"/>
     <mergeCell ref="Y79:AA79"/>
@@ -5373,10 +6130,6 @@
     <mergeCell ref="Q79:S79"/>
     <mergeCell ref="U78:W78"/>
     <mergeCell ref="U79:W79"/>
-    <mergeCell ref="AC72:AE72"/>
-    <mergeCell ref="AC73:AE73"/>
-    <mergeCell ref="AI72:AK72"/>
-    <mergeCell ref="AI73:AK73"/>
     <mergeCell ref="Q76:T76"/>
     <mergeCell ref="Q75:T75"/>
     <mergeCell ref="V75:Y75"/>
@@ -5385,6 +6138,7 @@
     <mergeCell ref="AA76:AD76"/>
     <mergeCell ref="AF75:AI75"/>
     <mergeCell ref="AF76:AI76"/>
+    <mergeCell ref="Q82:S82"/>
     <mergeCell ref="Z57:Z58"/>
     <mergeCell ref="Q73:S73"/>
     <mergeCell ref="Q72:S72"/>
@@ -5396,6 +6150,10 @@
     <mergeCell ref="Q66:X66"/>
     <mergeCell ref="AA66:AH66"/>
     <mergeCell ref="AL66:AT66"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="AI72:AK72"/>
+    <mergeCell ref="AI73:AK73"/>
     <mergeCell ref="P60:P61"/>
     <mergeCell ref="AK60:AK61"/>
     <mergeCell ref="Q64:R64"/>
@@ -5407,17 +6165,6 @@
     <mergeCell ref="AL10:AM10"/>
     <mergeCell ref="AL24:AM24"/>
     <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AP48:AQ48"/>
-    <mergeCell ref="AS48:AT48"/>
-    <mergeCell ref="Q50:X50"/>
-    <mergeCell ref="AA50:AH50"/>
-    <mergeCell ref="AL50:AT50"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AG48:AH48"/>
     <mergeCell ref="AK44:AK45"/>
     <mergeCell ref="Z44:Z45"/>
     <mergeCell ref="P41:P42"/>
@@ -5431,6 +6178,17 @@
     <mergeCell ref="Z39:AA39"/>
     <mergeCell ref="AM32:AN32"/>
     <mergeCell ref="AP32:AQ32"/>
+    <mergeCell ref="AP48:AQ48"/>
+    <mergeCell ref="AS48:AT48"/>
+    <mergeCell ref="Q50:X50"/>
+    <mergeCell ref="AA50:AH50"/>
+    <mergeCell ref="AL50:AT50"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AG48:AH48"/>
     <mergeCell ref="AS32:AT32"/>
     <mergeCell ref="Q34:X34"/>
     <mergeCell ref="AA34:AH34"/>
@@ -5471,6 +6229,11 @@
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
     <mergeCell ref="J57:J58"/>
     <mergeCell ref="K57:K58"/>
     <mergeCell ref="J59:J60"/>
@@ -5481,14 +6244,3174 @@
     <mergeCell ref="K68:K69"/>
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="K70:K71"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AX86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X93" sqref="X93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.28515625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="4.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" style="1"/>
+    <col min="30" max="30" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.28515625" style="1"/>
+    <col min="32" max="32" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.140625" style="1" customWidth="1"/>
+    <col min="34" max="35" width="4.28515625" style="1"/>
+    <col min="36" max="36" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.28515625" style="1"/>
+    <col min="38" max="38" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" style="1"/>
+    <col min="40" max="40" width="5.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="9.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="2.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="6.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="4.28515625" style="1"/>
+    <col min="45" max="45" width="4.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="6.7109375" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="4.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="124"/>
+      <c r="G2" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="125">
+        <v>72300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="125">
+        <v>70350</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="104"/>
+      <c r="K4" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="125">
+        <v>68710</v>
+      </c>
+      <c r="H5" s="24">
+        <f>D4</f>
+        <v>70350</v>
+      </c>
+      <c r="I5" s="24">
+        <f>D3</f>
+        <v>72300</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="24">
+        <f>D11</f>
+        <v>70700</v>
+      </c>
+    </row>
+    <row r="6" spans="2:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="125">
+        <v>68320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="125">
+        <v>69750</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="125">
+        <v>73300</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="101">
+        <v>0.8</v>
+      </c>
+      <c r="Q8" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB8" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="108"/>
+      <c r="AN8" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="AO8" s="78"/>
+    </row>
+    <row r="9" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="125"/>
+      <c r="G9" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="38">
+        <f>I5</f>
+        <v>72300</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="39">
+        <f>K5</f>
+        <v>70700</v>
+      </c>
+      <c r="L9" s="40">
+        <f>I9-K9</f>
+        <v>1600</v>
+      </c>
+      <c r="M9" s="137">
+        <f>L9/L10</f>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="P9" s="130">
+        <v>0.77</v>
+      </c>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="84"/>
+      <c r="AB9" s="96">
+        <v>0.77</v>
+      </c>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="108"/>
+      <c r="AK9" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL9" s="77"/>
+      <c r="AN9" s="103">
+        <v>0.77</v>
+      </c>
+      <c r="AO9" s="78"/>
+    </row>
+    <row r="10" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="126"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="32">
+        <f>I5</f>
+        <v>72300</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="33">
+        <f>H5</f>
+        <v>70350</v>
+      </c>
+      <c r="L10" s="35">
+        <f>I10-K10</f>
+        <v>1950</v>
+      </c>
+      <c r="M10" s="138"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="94"/>
+      <c r="X10" s="85"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="108"/>
+      <c r="AK10" s="108"/>
+      <c r="AL10" s="108"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP10" s="149"/>
+    </row>
+    <row r="11" spans="2:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="125">
+        <v>70700</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="108"/>
+      <c r="U11" s="89"/>
+      <c r="X11" s="85"/>
+      <c r="AB11" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="108"/>
+      <c r="AL11" s="108"/>
+      <c r="AN11" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="AO11" s="78"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="84"/>
+    </row>
+    <row r="12" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="125">
+        <v>68450</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="108"/>
+      <c r="U12" s="89"/>
+      <c r="X12" s="85"/>
+      <c r="AB12" s="140">
+        <v>0.23</v>
+      </c>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="80"/>
+      <c r="AJ12" s="85"/>
+      <c r="AN12" s="140">
+        <v>0.23</v>
+      </c>
+      <c r="AO12" s="78"/>
+      <c r="AQ12" s="80"/>
+      <c r="AV12" s="85"/>
+    </row>
+    <row r="13" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="124"/>
+      <c r="G13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="108"/>
+      <c r="U13" s="89"/>
+      <c r="X13" s="85"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="169"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="98"/>
+      <c r="AJ13" s="85"/>
+      <c r="AN13" s="140"/>
+      <c r="AO13" s="97"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="98"/>
+      <c r="AV13" s="85"/>
+    </row>
+    <row r="14" spans="2:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="124"/>
+      <c r="G14" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="38">
+        <f>K5</f>
+        <v>70700</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="39">
+        <f>H5</f>
+        <v>70350</v>
+      </c>
+      <c r="L14" s="40">
+        <f>I14-K14</f>
+        <v>350</v>
+      </c>
+      <c r="M14" s="137">
+        <f>L14/L15</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="108"/>
+      <c r="U14" s="89"/>
+      <c r="X14" s="85"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="80"/>
+      <c r="AG14" s="99"/>
+      <c r="AJ14" s="85"/>
+      <c r="AO14" s="78"/>
+      <c r="AQ14" s="80"/>
+      <c r="AS14" s="99"/>
+      <c r="AV14" s="85"/>
+    </row>
+    <row r="15" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="164">
+        <f>M9</f>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="G15" s="134"/>
+      <c r="H15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="32">
+        <f>I5</f>
+        <v>72300</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="33">
+        <f>H5</f>
+        <v>70350</v>
+      </c>
+      <c r="L15" s="35">
+        <f>I15-K15</f>
+        <v>1950</v>
+      </c>
+      <c r="M15" s="138"/>
+      <c r="P15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="108"/>
+      <c r="AB15" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="86"/>
+      <c r="AK15" s="77"/>
+      <c r="AN15" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="86"/>
+      <c r="AQ15" s="81"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="100"/>
+      <c r="AT15" s="77"/>
+      <c r="AU15" s="77"/>
+      <c r="AV15" s="86"/>
+      <c r="AW15" s="77"/>
+    </row>
+    <row r="16" spans="2:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="164">
+        <f>M14</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="141">
+        <f>$H$5</f>
+        <v>70350</v>
+      </c>
+      <c r="R16" s="141"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="141">
+        <f>$K$5</f>
+        <v>70700</v>
+      </c>
+      <c r="V16" s="141"/>
+      <c r="X16" s="141">
+        <f>$I$5</f>
+        <v>72300</v>
+      </c>
+      <c r="Y16" s="141"/>
+      <c r="Z16" s="121"/>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="141">
+        <f>$H$20</f>
+        <v>68320</v>
+      </c>
+      <c r="AD16" s="141"/>
+      <c r="AE16" s="141"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="141">
+        <f>$K$20</f>
+        <v>68450</v>
+      </c>
+      <c r="AH16" s="141"/>
+      <c r="AJ16" s="141">
+        <f>$I$20</f>
+        <v>68710</v>
+      </c>
+      <c r="AK16" s="141"/>
+      <c r="AN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="141">
+        <f>$H$33</f>
+        <v>69750</v>
+      </c>
+      <c r="AQ16" s="141"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="139">
+        <f>I53</f>
+        <v>72029.5</v>
+      </c>
+      <c r="AT16" s="139"/>
+      <c r="AV16" s="139">
+        <f>$I$33</f>
+        <v>73300</v>
+      </c>
+      <c r="AW16" s="139"/>
+    </row>
+    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="164"/>
+      <c r="G17" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="164"/>
+      <c r="Q18" s="142" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="142"/>
+      <c r="Z18" s="122"/>
+      <c r="AC18" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="143"/>
+      <c r="AI18" s="143"/>
+      <c r="AJ18" s="143"/>
+      <c r="AK18" s="143"/>
+      <c r="AO18" s="147" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP18" s="147"/>
+      <c r="AQ18" s="147"/>
+      <c r="AR18" s="147"/>
+      <c r="AS18" s="147"/>
+      <c r="AT18" s="147"/>
+      <c r="AU18" s="147"/>
+      <c r="AV18" s="147"/>
+      <c r="AW18" s="147"/>
+    </row>
+    <row r="19" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="164"/>
+      <c r="G19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="104"/>
+      <c r="K19" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="164"/>
+      <c r="H20" s="24">
+        <f>D6</f>
+        <v>68320</v>
+      </c>
+      <c r="I20" s="24">
+        <f>D5</f>
+        <v>68710</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="24">
+        <f>D12</f>
+        <v>68450</v>
+      </c>
+    </row>
+    <row r="21" spans="2:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="164"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="163">
+        <f>I53</f>
+        <v>72029.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="163">
+        <f>I64</f>
+        <v>70720.5</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="87">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC23" s="150"/>
+      <c r="AD23" s="123"/>
+    </row>
+    <row r="24" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="163">
+        <f>K75</f>
+        <v>70635.5</v>
+      </c>
+      <c r="G24" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="32">
+        <f>I20</f>
+        <v>68710</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="33">
+        <f>K20</f>
+        <v>68450</v>
+      </c>
+      <c r="L24" s="35">
+        <f>I24-K24</f>
+        <v>260</v>
+      </c>
+      <c r="M24" s="135">
+        <f>L24/L25</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P24" s="101">
+        <v>0.8</v>
+      </c>
+      <c r="Q24" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB24" s="76">
+        <v>0.9</v>
+      </c>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="108"/>
+      <c r="AK24" s="108"/>
+      <c r="AN24" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="AO24" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP24" s="149"/>
+    </row>
+    <row r="25" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="163">
+        <f>K86</f>
+        <v>70635.5</v>
+      </c>
+      <c r="G25" s="134"/>
+      <c r="H25" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="32">
+        <f>I20</f>
+        <v>68710</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="33">
+        <f>H20</f>
+        <v>68320</v>
+      </c>
+      <c r="L25" s="35">
+        <f>I25-K25</f>
+        <v>390</v>
+      </c>
+      <c r="M25" s="136"/>
+      <c r="P25" s="130">
+        <v>0.77</v>
+      </c>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="84"/>
+      <c r="AB25" s="145">
+        <v>0.67</v>
+      </c>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="108"/>
+      <c r="AN25" s="145">
+        <v>0.67</v>
+      </c>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="83"/>
+      <c r="AS25" s="83"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="83"/>
+      <c r="AV25" s="84"/>
+    </row>
+    <row r="26" spans="2:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="124"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="94"/>
+      <c r="X26" s="85"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="92"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="108"/>
+      <c r="AL26" s="108"/>
+      <c r="AN26" s="151"/>
+      <c r="AO26" s="91"/>
+      <c r="AP26" s="93"/>
+      <c r="AQ26" s="92"/>
+      <c r="AR26" s="93"/>
+      <c r="AS26" s="98"/>
+      <c r="AT26" s="108"/>
+      <c r="AU26" s="108"/>
+      <c r="AV26" s="85"/>
+      <c r="AW26" s="108"/>
+    </row>
+    <row r="27" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="124"/>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="108"/>
+      <c r="U27" s="89"/>
+      <c r="X27" s="85"/>
+      <c r="AB27" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="85"/>
+      <c r="AK27" s="108"/>
+      <c r="AL27" s="108"/>
+      <c r="AN27" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="108"/>
+      <c r="AQ27" s="80"/>
+      <c r="AR27" s="108"/>
+      <c r="AS27" s="99"/>
+      <c r="AT27" s="108"/>
+      <c r="AU27" s="108"/>
+      <c r="AV27" s="85"/>
+      <c r="AW27" s="108"/>
+    </row>
+    <row r="28" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="124">
+        <f>Q84</f>
+        <v>71023.560150375954</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="108"/>
+      <c r="U28" s="89"/>
+      <c r="X28" s="85"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="108"/>
+      <c r="AJ28" s="85"/>
+      <c r="AK28" s="108"/>
+      <c r="AL28" s="108"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="108"/>
+      <c r="AQ28" s="80"/>
+      <c r="AR28" s="108"/>
+      <c r="AS28" s="99"/>
+      <c r="AT28" s="108"/>
+      <c r="AU28" s="108"/>
+      <c r="AV28" s="85"/>
+      <c r="AW28" s="108"/>
+    </row>
+    <row r="29" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="32">
+        <f>K20</f>
+        <v>68450</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="33">
+        <f>H20</f>
+        <v>68320</v>
+      </c>
+      <c r="L29" s="35">
+        <f>I29-K29</f>
+        <v>130</v>
+      </c>
+      <c r="M29" s="135">
+        <f>L29/L30</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P29" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="108"/>
+      <c r="U29" s="89"/>
+      <c r="X29" s="85"/>
+      <c r="AB29" s="103">
+        <v>0.3</v>
+      </c>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="170"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="108"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="108"/>
+      <c r="AJ29" s="85"/>
+      <c r="AK29" s="108"/>
+      <c r="AL29" s="108"/>
+      <c r="AN29" s="103">
+        <v>0.3</v>
+      </c>
+      <c r="AO29" s="109"/>
+      <c r="AP29" s="108"/>
+      <c r="AQ29" s="80"/>
+      <c r="AR29" s="108"/>
+      <c r="AS29" s="99"/>
+      <c r="AT29" s="108"/>
+      <c r="AU29" s="108"/>
+      <c r="AV29" s="85"/>
+      <c r="AW29" s="108"/>
+    </row>
+    <row r="30" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="134"/>
+      <c r="H30" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="32">
+        <f>I20</f>
+        <v>68710</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="33">
+        <f>H20</f>
+        <v>68320</v>
+      </c>
+      <c r="L30" s="35">
+        <f>I30-K30</f>
+        <v>390</v>
+      </c>
+      <c r="M30" s="136"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="108"/>
+      <c r="U30" s="89"/>
+      <c r="X30" s="85"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="108"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="108"/>
+      <c r="AJ30" s="85"/>
+      <c r="AK30" s="108"/>
+      <c r="AL30" s="108"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="108"/>
+      <c r="AQ30" s="80"/>
+      <c r="AR30" s="108"/>
+      <c r="AS30" s="99"/>
+      <c r="AT30" s="108"/>
+      <c r="AU30" s="108"/>
+      <c r="AV30" s="85"/>
+      <c r="AW30" s="108"/>
+    </row>
+    <row r="31" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="108"/>
+      <c r="AB31" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="86"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="108"/>
+      <c r="AN31" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="AO31" s="79"/>
+      <c r="AP31" s="77"/>
+      <c r="AQ31" s="81"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="100"/>
+      <c r="AT31" s="77"/>
+      <c r="AU31" s="77"/>
+      <c r="AV31" s="86"/>
+      <c r="AW31" s="77"/>
+    </row>
+    <row r="32" spans="2:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="141">
+        <f>H5</f>
+        <v>70350</v>
+      </c>
+      <c r="R32" s="141"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="141">
+        <f>K5</f>
+        <v>70700</v>
+      </c>
+      <c r="V32" s="141"/>
+      <c r="X32" s="141">
+        <f>I5</f>
+        <v>72300</v>
+      </c>
+      <c r="Y32" s="141"/>
+      <c r="Z32" s="121"/>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="141">
+        <f>H20</f>
+        <v>68320</v>
+      </c>
+      <c r="AD32" s="141"/>
+      <c r="AE32" s="141"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="141">
+        <f>K20</f>
+        <v>68450</v>
+      </c>
+      <c r="AH32" s="141"/>
+      <c r="AJ32" s="141">
+        <f>I20</f>
+        <v>68710</v>
+      </c>
+      <c r="AK32" s="141"/>
+      <c r="AN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="141">
+        <f>H33</f>
+        <v>69750</v>
+      </c>
+      <c r="AQ32" s="141"/>
+      <c r="AR32" s="88"/>
+      <c r="AS32" s="144">
+        <f>I64</f>
+        <v>70720.5</v>
+      </c>
+      <c r="AT32" s="144"/>
+      <c r="AV32" s="144">
+        <f>I33</f>
+        <v>73300</v>
+      </c>
+      <c r="AW32" s="144"/>
+    </row>
+    <row r="33" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="21">
+        <f>D7</f>
+        <v>69750</v>
+      </c>
+      <c r="I33" s="21">
+        <f>D8</f>
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="34" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="142" t="s">
+        <v>71</v>
+      </c>
+      <c r="R34" s="142"/>
+      <c r="S34" s="142"/>
+      <c r="T34" s="142"/>
+      <c r="U34" s="142"/>
+      <c r="V34" s="142"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="142"/>
+      <c r="Y34" s="142"/>
+      <c r="Z34" s="122"/>
+      <c r="AC34" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD34" s="143"/>
+      <c r="AE34" s="143"/>
+      <c r="AF34" s="143"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="143"/>
+      <c r="AI34" s="143"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" s="143"/>
+      <c r="AO34" s="147" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP34" s="147"/>
+      <c r="AQ34" s="147"/>
+      <c r="AR34" s="147"/>
+      <c r="AS34" s="147"/>
+      <c r="AT34" s="147"/>
+      <c r="AU34" s="147"/>
+      <c r="AV34" s="147"/>
+      <c r="AW34" s="147"/>
+    </row>
+    <row r="35" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="32">
+        <f>I33</f>
+        <v>73300</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="35" t="str">
+        <f>I36&amp;" "&amp;J36&amp;" "&amp;K36</f>
+        <v>73300 - x</v>
+      </c>
+    </row>
+    <row r="37" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="134"/>
+      <c r="H37" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="32">
+        <f>I33</f>
+        <v>73300</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="33">
+        <f>H33</f>
+        <v>69750</v>
+      </c>
+      <c r="L37" s="35">
+        <f>I37-K37</f>
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="38" spans="7:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39"/>
+      <c r="P39" s="87">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="152"/>
+      <c r="AC39" s="152"/>
+      <c r="AD39" s="123"/>
+    </row>
+    <row r="40" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P40" s="101">
+        <v>0.8</v>
+      </c>
+      <c r="Q40" s="78"/>
+      <c r="Y40" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="108"/>
+      <c r="AN40" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="AO40" s="78"/>
+    </row>
+    <row r="41" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="133" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="33">
+        <f>H33</f>
+        <v>69750</v>
+      </c>
+      <c r="L41" s="35" t="str">
+        <f>I41&amp;" "&amp;J41&amp;" "&amp;K41</f>
+        <v>x - 69750</v>
+      </c>
+      <c r="P41" s="140">
+        <v>0.6</v>
+      </c>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+      <c r="X41" s="84"/>
+      <c r="AB41" s="96">
+        <v>0.77</v>
+      </c>
+      <c r="AC41" s="78"/>
+      <c r="AD41" s="108"/>
+      <c r="AK41" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL41" s="77"/>
+      <c r="AN41" s="103">
+        <v>0.77</v>
+      </c>
+      <c r="AO41" s="78"/>
+      <c r="AW41" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX41" s="77"/>
+    </row>
+    <row r="42" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="134"/>
+      <c r="H42" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="32">
+        <f>I33</f>
+        <v>73300</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="33">
+        <f>H33</f>
+        <v>69750</v>
+      </c>
+      <c r="L42" s="35">
+        <f>I42-K42</f>
+        <v>3550</v>
+      </c>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="108"/>
+      <c r="U42" s="108"/>
+      <c r="X42" s="85"/>
+      <c r="AB42" s="96"/>
+      <c r="AC42" s="78"/>
+      <c r="AD42" s="108"/>
+      <c r="AK42" s="108"/>
+      <c r="AL42" s="108"/>
+      <c r="AN42" s="96"/>
+      <c r="AO42" s="78"/>
+      <c r="AP42" s="108"/>
+      <c r="AQ42" s="82"/>
+      <c r="AR42" s="83"/>
+      <c r="AS42" s="83"/>
+      <c r="AT42" s="83"/>
+      <c r="AU42" s="83"/>
+      <c r="AV42" s="84"/>
+      <c r="AW42" s="108"/>
+    </row>
+    <row r="43" spans="7:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="108"/>
+      <c r="U43" s="108"/>
+      <c r="X43" s="85"/>
+      <c r="AB43" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="AC43" s="78"/>
+      <c r="AD43" s="108"/>
+      <c r="AE43" s="82"/>
+      <c r="AF43" s="83"/>
+      <c r="AG43" s="83"/>
+      <c r="AH43" s="83"/>
+      <c r="AI43" s="83"/>
+      <c r="AJ43" s="84"/>
+      <c r="AK43" s="108"/>
+      <c r="AL43" s="108"/>
+      <c r="AN43" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="108"/>
+      <c r="AQ43" s="80"/>
+      <c r="AR43" s="108"/>
+      <c r="AS43" s="108"/>
+      <c r="AT43" s="108"/>
+      <c r="AU43" s="108"/>
+      <c r="AV43" s="85"/>
+      <c r="AW43" s="108"/>
+    </row>
+    <row r="44" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="54">
+        <f>M9</f>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="55">
+        <f>M29</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" s="145">
+        <v>0.23</v>
+      </c>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="X44" s="85"/>
+      <c r="AB44" s="140">
+        <v>0.23</v>
+      </c>
+      <c r="AC44" s="78"/>
+      <c r="AD44" s="108"/>
+      <c r="AE44" s="80"/>
+      <c r="AJ44" s="85"/>
+      <c r="AN44" s="140">
+        <v>0.23</v>
+      </c>
+      <c r="AO44" s="78"/>
+      <c r="AP44" s="108"/>
+      <c r="AQ44" s="80"/>
+      <c r="AR44" s="108"/>
+      <c r="AS44" s="108"/>
+      <c r="AT44" s="108"/>
+      <c r="AU44" s="108"/>
+      <c r="AV44" s="85"/>
+      <c r="AW44" s="108"/>
+    </row>
+    <row r="45" spans="7:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="52">
+        <f>MIN(I44,K44)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P45" s="145"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="98"/>
+      <c r="X45" s="85"/>
+      <c r="AB45" s="140"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="169"/>
+      <c r="AE45" s="92"/>
+      <c r="AF45" s="93"/>
+      <c r="AG45" s="98"/>
+      <c r="AJ45" s="85"/>
+      <c r="AN45" s="140"/>
+      <c r="AO45" s="97"/>
+      <c r="AP45" s="93"/>
+      <c r="AQ45" s="92"/>
+      <c r="AR45" s="93"/>
+      <c r="AS45" s="98"/>
+      <c r="AT45" s="108"/>
+      <c r="AU45" s="108"/>
+      <c r="AV45" s="85"/>
+      <c r="AW45" s="108"/>
+    </row>
+    <row r="46" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="43" t="str">
+        <f>H36</f>
+        <v>b - x</v>
+      </c>
+      <c r="J46" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="132">
+        <f>H45</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="99"/>
+      <c r="X46" s="85"/>
+      <c r="AC46" s="78"/>
+      <c r="AD46" s="108"/>
+      <c r="AE46" s="80"/>
+      <c r="AG46" s="99"/>
+      <c r="AJ46" s="85"/>
+      <c r="AO46" s="78"/>
+      <c r="AP46" s="108"/>
+      <c r="AQ46" s="80"/>
+      <c r="AR46" s="108"/>
+      <c r="AS46" s="99"/>
+      <c r="AT46" s="108"/>
+      <c r="AU46" s="108"/>
+      <c r="AV46" s="85"/>
+      <c r="AW46" s="108"/>
+    </row>
+    <row r="47" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="127"/>
+      <c r="I47" s="104" t="str">
+        <f>H37</f>
+        <v>b - a</v>
+      </c>
+      <c r="J47" s="128"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="P47" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="100"/>
+      <c r="V47" s="77"/>
+      <c r="W47" s="77"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="77"/>
+      <c r="Z47" s="108"/>
+      <c r="AB47" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="AC47" s="79"/>
+      <c r="AD47" s="77"/>
+      <c r="AE47" s="81"/>
+      <c r="AF47" s="77"/>
+      <c r="AG47" s="100"/>
+      <c r="AH47" s="77"/>
+      <c r="AI47" s="77"/>
+      <c r="AJ47" s="86"/>
+      <c r="AK47" s="77"/>
+      <c r="AN47" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="AO47" s="79"/>
+      <c r="AP47" s="77"/>
+      <c r="AQ47" s="81"/>
+      <c r="AR47" s="77"/>
+      <c r="AS47" s="100"/>
+      <c r="AT47" s="77"/>
+      <c r="AU47" s="77"/>
+      <c r="AV47" s="86"/>
+      <c r="AW47" s="77"/>
+    </row>
+    <row r="48" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="60" t="str">
+        <f>L36</f>
+        <v>73300 - x</v>
+      </c>
+      <c r="J48" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="132">
+        <f>K46</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="141">
+        <f>$H$5</f>
+        <v>70350</v>
+      </c>
+      <c r="R48" s="141"/>
+      <c r="S48" s="121"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="141">
+        <f>$K$5</f>
+        <v>70700</v>
+      </c>
+      <c r="V48" s="141"/>
+      <c r="X48" s="141">
+        <f>$I$5</f>
+        <v>72300</v>
+      </c>
+      <c r="Y48" s="141"/>
+      <c r="Z48" s="121"/>
+      <c r="AB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="141">
+        <f>$H$20</f>
+        <v>68320</v>
+      </c>
+      <c r="AD48" s="141"/>
+      <c r="AE48" s="141"/>
+      <c r="AF48" s="88"/>
+      <c r="AG48" s="141">
+        <f>$K$20</f>
+        <v>68450</v>
+      </c>
+      <c r="AH48" s="141"/>
+      <c r="AJ48" s="141">
+        <f>$I$20</f>
+        <v>68710</v>
+      </c>
+      <c r="AK48" s="141"/>
+      <c r="AN48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="141">
+        <f>$H$33</f>
+        <v>69750</v>
+      </c>
+      <c r="AQ48" s="141"/>
+      <c r="AR48" s="88"/>
+      <c r="AS48" s="146">
+        <f>K75</f>
+        <v>70635.5</v>
+      </c>
+      <c r="AT48" s="146"/>
+      <c r="AV48" s="144">
+        <f>$I$33</f>
+        <v>73300</v>
+      </c>
+      <c r="AW48" s="144"/>
+    </row>
+    <row r="49" spans="7:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="61">
+        <f>L37</f>
+        <v>3550</v>
+      </c>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+    </row>
+    <row r="50" spans="7:50" x14ac:dyDescent="0.25">
+      <c r="I50" s="14" t="str">
+        <f>L36</f>
+        <v>73300 - x</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="105">
+        <f>K48</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L50" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="M50" s="14">
+        <f>I49</f>
+        <v>3550</v>
+      </c>
+      <c r="Q50" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" s="142"/>
+      <c r="S50" s="142"/>
+      <c r="T50" s="142"/>
+      <c r="U50" s="142"/>
+      <c r="V50" s="142"/>
+      <c r="W50" s="142"/>
+      <c r="X50" s="142"/>
+      <c r="Y50" s="142"/>
+      <c r="Z50" s="122"/>
+      <c r="AC50" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD50" s="143"/>
+      <c r="AE50" s="143"/>
+      <c r="AF50" s="143"/>
+      <c r="AG50" s="143"/>
+      <c r="AH50" s="143"/>
+      <c r="AI50" s="143"/>
+      <c r="AJ50" s="143"/>
+      <c r="AK50" s="143"/>
+      <c r="AO50" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP50" s="147"/>
+      <c r="AQ50" s="147"/>
+      <c r="AR50" s="147"/>
+      <c r="AS50" s="147"/>
+      <c r="AT50" s="147"/>
+      <c r="AU50" s="147"/>
+      <c r="AV50" s="147"/>
+      <c r="AW50" s="147"/>
+    </row>
+    <row r="51" spans="7:50" x14ac:dyDescent="0.25">
+      <c r="I51" s="14" t="str">
+        <f>I50</f>
+        <v>73300 - x</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="45">
+        <v>1270.5</v>
+      </c>
+      <c r="L51" s="104"/>
+      <c r="M51" s="104"/>
+    </row>
+    <row r="52" spans="7:50" x14ac:dyDescent="0.25">
+      <c r="G52" s="47">
+        <f>I36</f>
+        <v>73300</v>
+      </c>
+      <c r="H52" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="46">
+        <f>K51</f>
+        <v>1270.5</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="104"/>
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="7:50" x14ac:dyDescent="0.25">
+      <c r="I53" s="64">
+        <f>G52-I52</f>
+        <v>72029.5</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+    </row>
+    <row r="55" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" s="57">
+        <f>M9</f>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="J55" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="K55" s="56">
+        <f>M24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L55" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" s="104"/>
+      <c r="P55" s="87">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC55" s="150"/>
+      <c r="AD55" s="123"/>
+    </row>
+    <row r="56" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="58">
+        <f>MIN(I55,K55)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="P56" s="101">
+        <v>0.8</v>
+      </c>
+      <c r="Q56" s="78"/>
+      <c r="Y56" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z56" s="108"/>
+      <c r="AA56" s="108"/>
+      <c r="AB56" s="76">
+        <v>0.9</v>
+      </c>
+      <c r="AC56" s="78"/>
+      <c r="AD56" s="108"/>
+      <c r="AE56" s="108"/>
+      <c r="AF56" s="108"/>
+      <c r="AG56" s="108"/>
+      <c r="AH56" s="108"/>
+      <c r="AI56" s="108"/>
+      <c r="AJ56" s="108"/>
+      <c r="AK56" s="108"/>
+      <c r="AN56" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="AO56" s="78"/>
+    </row>
+    <row r="57" spans="7:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="104"/>
+      <c r="H57" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="48" t="str">
+        <f>H36</f>
+        <v>b - x</v>
+      </c>
+      <c r="J57" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="129">
+        <f>H56</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L57" s="104"/>
+      <c r="M57" s="104"/>
+      <c r="P57" s="140">
+        <v>0.6</v>
+      </c>
+      <c r="Q57" s="78"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="83"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
+      <c r="X57" s="84"/>
+      <c r="AB57" s="145">
+        <v>0.67</v>
+      </c>
+      <c r="AC57" s="78"/>
+      <c r="AD57" s="108"/>
+      <c r="AE57" s="82"/>
+      <c r="AF57" s="83"/>
+      <c r="AG57" s="83"/>
+      <c r="AH57" s="83"/>
+      <c r="AI57" s="83"/>
+      <c r="AJ57" s="84"/>
+      <c r="AK57" s="108"/>
+      <c r="AN57" s="103">
+        <v>0.77</v>
+      </c>
+      <c r="AO57" s="78"/>
+      <c r="AW57" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX57" s="77"/>
+    </row>
+    <row r="58" spans="7:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="104"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="104" t="str">
+        <f>H37</f>
+        <v>b - a</v>
+      </c>
+      <c r="J58" s="128"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="P58" s="145"/>
+      <c r="Q58" s="78"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="108"/>
+      <c r="T58" s="108"/>
+      <c r="U58" s="108"/>
+      <c r="X58" s="85"/>
+      <c r="AB58" s="145"/>
+      <c r="AC58" s="91"/>
+      <c r="AD58" s="93"/>
+      <c r="AE58" s="92"/>
+      <c r="AF58" s="93"/>
+      <c r="AG58" s="98"/>
+      <c r="AH58" s="108"/>
+      <c r="AI58" s="108"/>
+      <c r="AJ58" s="85"/>
+      <c r="AK58" s="108"/>
+      <c r="AL58" s="108"/>
+      <c r="AN58" s="96"/>
+      <c r="AO58" s="78"/>
+      <c r="AP58" s="108"/>
+      <c r="AQ58" s="82"/>
+      <c r="AR58" s="83"/>
+      <c r="AS58" s="83"/>
+      <c r="AT58" s="83"/>
+      <c r="AU58" s="83"/>
+      <c r="AV58" s="84"/>
+      <c r="AW58" s="108"/>
+    </row>
+    <row r="59" spans="7:50" x14ac:dyDescent="0.25">
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="62" t="str">
+        <f>L36</f>
+        <v>73300 - x</v>
+      </c>
+      <c r="J59" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="K59" s="129">
+        <f>K57</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L59" s="104"/>
+      <c r="M59" s="104"/>
+      <c r="P59" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="80"/>
+      <c r="S59" s="108"/>
+      <c r="T59" s="108"/>
+      <c r="U59" s="108"/>
+      <c r="X59" s="85"/>
+      <c r="AB59" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="AC59" s="78"/>
+      <c r="AD59" s="108"/>
+      <c r="AE59" s="80"/>
+      <c r="AF59" s="108"/>
+      <c r="AG59" s="99"/>
+      <c r="AH59" s="108"/>
+      <c r="AI59" s="108"/>
+      <c r="AJ59" s="85"/>
+      <c r="AK59" s="108"/>
+      <c r="AL59" s="108"/>
+      <c r="AN59" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="AO59" s="78"/>
+      <c r="AP59" s="108"/>
+      <c r="AQ59" s="80"/>
+      <c r="AR59" s="108"/>
+      <c r="AS59" s="108"/>
+      <c r="AT59" s="108"/>
+      <c r="AU59" s="108"/>
+      <c r="AV59" s="85"/>
+      <c r="AW59" s="108"/>
+    </row>
+    <row r="60" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="61">
+        <f>L37</f>
+        <v>3550</v>
+      </c>
+      <c r="J60" s="128"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="104"/>
+      <c r="P60" s="145">
+        <v>0.23</v>
+      </c>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
+      <c r="X60" s="85"/>
+      <c r="AB60" s="103"/>
+      <c r="AC60" s="78"/>
+      <c r="AD60" s="108"/>
+      <c r="AE60" s="80"/>
+      <c r="AF60" s="108"/>
+      <c r="AG60" s="99"/>
+      <c r="AH60" s="108"/>
+      <c r="AI60" s="108"/>
+      <c r="AJ60" s="85"/>
+      <c r="AK60" s="108"/>
+      <c r="AL60" s="108"/>
+      <c r="AN60" s="140">
+        <v>0.23</v>
+      </c>
+      <c r="AO60" s="78"/>
+      <c r="AP60" s="108"/>
+      <c r="AQ60" s="80"/>
+      <c r="AR60" s="108"/>
+      <c r="AS60" s="108"/>
+      <c r="AT60" s="108"/>
+      <c r="AU60" s="108"/>
+      <c r="AV60" s="85"/>
+      <c r="AW60" s="108"/>
+    </row>
+    <row r="61" spans="7:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="14" t="str">
+        <f>L36</f>
+        <v>73300 - x</v>
+      </c>
+      <c r="J61" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K61" s="105">
+        <f>K59</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L61" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="M61" s="51">
+        <f>I60</f>
+        <v>3550</v>
+      </c>
+      <c r="P61" s="145"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="93"/>
+      <c r="U61" s="98"/>
+      <c r="X61" s="85"/>
+      <c r="AB61" s="103">
+        <v>0.3</v>
+      </c>
+      <c r="AC61" s="109"/>
+      <c r="AD61" s="170"/>
+      <c r="AE61" s="80"/>
+      <c r="AF61" s="108"/>
+      <c r="AG61" s="99"/>
+      <c r="AH61" s="108"/>
+      <c r="AI61" s="108"/>
+      <c r="AJ61" s="85"/>
+      <c r="AK61" s="108"/>
+      <c r="AL61" s="108"/>
+      <c r="AN61" s="140"/>
+      <c r="AO61" s="97"/>
+      <c r="AP61" s="93"/>
+      <c r="AQ61" s="92"/>
+      <c r="AR61" s="93"/>
+      <c r="AS61" s="98"/>
+      <c r="AT61" s="108"/>
+      <c r="AU61" s="108"/>
+      <c r="AV61" s="85"/>
+      <c r="AW61" s="108"/>
+    </row>
+    <row r="62" spans="7:50" x14ac:dyDescent="0.25">
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="14" t="str">
+        <f>I61</f>
+        <v>73300 - x</v>
+      </c>
+      <c r="J62" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K62" s="45">
+        <v>2579.5</v>
+      </c>
+      <c r="L62" s="104"/>
+      <c r="M62" s="104"/>
+      <c r="P62" s="76"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="80"/>
+      <c r="S62" s="108"/>
+      <c r="T62" s="108"/>
+      <c r="U62" s="99"/>
+      <c r="X62" s="85"/>
+      <c r="AB62" s="76"/>
+      <c r="AC62" s="78"/>
+      <c r="AD62" s="108"/>
+      <c r="AE62" s="80"/>
+      <c r="AF62" s="108"/>
+      <c r="AG62" s="99"/>
+      <c r="AH62" s="108"/>
+      <c r="AI62" s="108"/>
+      <c r="AJ62" s="85"/>
+      <c r="AK62" s="108"/>
+      <c r="AL62" s="108"/>
+      <c r="AO62" s="78"/>
+      <c r="AP62" s="108"/>
+      <c r="AQ62" s="80"/>
+      <c r="AR62" s="108"/>
+      <c r="AS62" s="99"/>
+      <c r="AT62" s="108"/>
+      <c r="AU62" s="108"/>
+      <c r="AV62" s="85"/>
+      <c r="AW62" s="108"/>
+    </row>
+    <row r="63" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="49">
+        <f>I33</f>
+        <v>73300</v>
+      </c>
+      <c r="H63" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" s="45">
+        <f>K62</f>
+        <v>2579.5</v>
+      </c>
+      <c r="J63" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K63" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="P63" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="Q63" s="79"/>
+      <c r="R63" s="81"/>
+      <c r="S63" s="77"/>
+      <c r="T63" s="77"/>
+      <c r="U63" s="100"/>
+      <c r="V63" s="77"/>
+      <c r="W63" s="77"/>
+      <c r="X63" s="86"/>
+      <c r="Y63" s="77"/>
+      <c r="Z63" s="108"/>
+      <c r="AB63" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="AC63" s="79"/>
+      <c r="AD63" s="77"/>
+      <c r="AE63" s="81"/>
+      <c r="AF63" s="77"/>
+      <c r="AG63" s="100"/>
+      <c r="AH63" s="77"/>
+      <c r="AI63" s="77"/>
+      <c r="AJ63" s="86"/>
+      <c r="AK63" s="77"/>
+      <c r="AL63" s="108"/>
+      <c r="AN63" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="AO63" s="79"/>
+      <c r="AP63" s="77"/>
+      <c r="AQ63" s="81"/>
+      <c r="AR63" s="77"/>
+      <c r="AS63" s="100"/>
+      <c r="AT63" s="77"/>
+      <c r="AU63" s="77"/>
+      <c r="AV63" s="86"/>
+      <c r="AW63" s="77"/>
+    </row>
+    <row r="64" spans="7:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="63">
+        <f>G63-I63</f>
+        <v>70720.5</v>
+      </c>
+      <c r="J64" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K64" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="104"/>
+      <c r="M64" s="104"/>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="141">
+        <f>$H$5</f>
+        <v>70350</v>
+      </c>
+      <c r="R64" s="141"/>
+      <c r="S64" s="121"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="141">
+        <f>$K$5</f>
+        <v>70700</v>
+      </c>
+      <c r="V64" s="141"/>
+      <c r="X64" s="141">
+        <f>$I$5</f>
+        <v>72300</v>
+      </c>
+      <c r="Y64" s="141"/>
+      <c r="Z64" s="121"/>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="141">
+        <f>$H$20</f>
+        <v>68320</v>
+      </c>
+      <c r="AD64" s="141"/>
+      <c r="AE64" s="141"/>
+      <c r="AF64" s="88"/>
+      <c r="AG64" s="141">
+        <f>$K$20</f>
+        <v>68450</v>
+      </c>
+      <c r="AH64" s="141"/>
+      <c r="AJ64" s="141">
+        <f>$I$20</f>
+        <v>68710</v>
+      </c>
+      <c r="AK64" s="141"/>
+      <c r="AN64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="141">
+        <f>$H$33</f>
+        <v>69750</v>
+      </c>
+      <c r="AQ64" s="141"/>
+      <c r="AR64" s="88"/>
+      <c r="AS64" s="146">
+        <f>K86</f>
+        <v>70635.5</v>
+      </c>
+      <c r="AT64" s="146"/>
+      <c r="AV64" s="144">
+        <f>$I$33</f>
+        <v>73300</v>
+      </c>
+      <c r="AW64" s="144"/>
+    </row>
+    <row r="66" spans="7:49" x14ac:dyDescent="0.25">
+      <c r="G66" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="67">
+        <f>M14</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="J66" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="K66" s="68">
+        <f>M29</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L66" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M66" s="104"/>
+      <c r="Q66" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="R66" s="142"/>
+      <c r="S66" s="142"/>
+      <c r="T66" s="142"/>
+      <c r="U66" s="142"/>
+      <c r="V66" s="142"/>
+      <c r="W66" s="142"/>
+      <c r="X66" s="142"/>
+      <c r="Y66" s="142"/>
+      <c r="Z66" s="122"/>
+      <c r="AC66" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD66" s="143"/>
+      <c r="AE66" s="143"/>
+      <c r="AF66" s="143"/>
+      <c r="AG66" s="143"/>
+      <c r="AH66" s="143"/>
+      <c r="AI66" s="143"/>
+      <c r="AJ66" s="143"/>
+      <c r="AK66" s="143"/>
+      <c r="AO66" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP66" s="147"/>
+      <c r="AQ66" s="147"/>
+      <c r="AR66" s="147"/>
+      <c r="AS66" s="147"/>
+      <c r="AT66" s="147"/>
+      <c r="AU66" s="147"/>
+      <c r="AV66" s="147"/>
+      <c r="AW66" s="147"/>
+    </row>
+    <row r="67" spans="7:49" x14ac:dyDescent="0.25">
+      <c r="G67" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="58">
+        <f>MIN(I66,K66)</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+    </row>
+    <row r="68" spans="7:49" x14ac:dyDescent="0.25">
+      <c r="G68" s="104"/>
+      <c r="H68" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="I68" s="48" t="str">
+        <f>H41</f>
+        <v>x - a</v>
+      </c>
+      <c r="J68" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="K68" s="129">
+        <f>H67</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="L68" s="104"/>
+      <c r="M68" s="104"/>
+    </row>
+    <row r="69" spans="7:49" x14ac:dyDescent="0.25">
+      <c r="G69" s="104"/>
+      <c r="H69" s="127"/>
+      <c r="I69" s="104" t="str">
+        <f>H42</f>
+        <v>b - a</v>
+      </c>
+      <c r="J69" s="128"/>
+      <c r="K69" s="129"/>
+      <c r="L69" s="104"/>
+      <c r="M69" s="104"/>
+    </row>
+    <row r="70" spans="7:49" x14ac:dyDescent="0.25">
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="62" t="str">
+        <f>L41</f>
+        <v>x - 69750</v>
+      </c>
+      <c r="J70" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="K70" s="129">
+        <f>K68</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="L70" s="104"/>
+      <c r="M70" s="104"/>
+    </row>
+    <row r="71" spans="7:49" x14ac:dyDescent="0.25">
+      <c r="G71" s="104"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="61">
+        <f>L42</f>
+        <v>3550</v>
+      </c>
+      <c r="J71" s="128"/>
+      <c r="K71" s="129"/>
+      <c r="L71" s="104"/>
+      <c r="M71" s="104"/>
+    </row>
+    <row r="72" spans="7:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="104"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="14" t="str">
+        <f>I70</f>
+        <v>x - 69750</v>
+      </c>
+      <c r="J72" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K72" s="105">
+        <f>K70</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="L72" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="M72" s="51">
+        <f>I71</f>
+        <v>3550</v>
+      </c>
+      <c r="O72" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="P72" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q72" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="R72" s="154"/>
+      <c r="S72" s="154"/>
+      <c r="T72" s="154"/>
+      <c r="U72" s="111"/>
+      <c r="V72" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="W72" s="112"/>
+      <c r="X72" s="155" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y72" s="155"/>
+      <c r="Z72" s="155"/>
+      <c r="AA72" s="155"/>
+      <c r="AB72" s="111"/>
+      <c r="AC72" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD72" s="111"/>
+      <c r="AE72" s="112"/>
+      <c r="AF72" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG72" s="154"/>
+      <c r="AH72" s="154"/>
+      <c r="AI72" s="111"/>
+      <c r="AJ72" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK72" s="112"/>
+      <c r="AL72" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM72" s="154"/>
+      <c r="AN72" s="154"/>
+      <c r="AO72" s="66"/>
+      <c r="AP72" s="66"/>
+    </row>
+    <row r="73" spans="7:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="14" t="str">
+        <f>I72</f>
+        <v>x - 69750</v>
+      </c>
+      <c r="J73" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K73" s="45">
+        <v>885.5</v>
+      </c>
+      <c r="L73" s="104"/>
+      <c r="M73" s="104"/>
+      <c r="O73" s="110"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="R73" s="153"/>
+      <c r="S73" s="153"/>
+      <c r="T73" s="153"/>
+      <c r="U73" s="113"/>
+      <c r="V73" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="W73" s="114"/>
+      <c r="X73" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y73" s="153"/>
+      <c r="Z73" s="153"/>
+      <c r="AA73" s="153"/>
+      <c r="AB73" s="113"/>
+      <c r="AC73" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD73" s="113"/>
+      <c r="AE73" s="114"/>
+      <c r="AF73" s="153" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG73" s="153"/>
+      <c r="AH73" s="153"/>
+      <c r="AI73" s="113"/>
+      <c r="AJ73" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK73" s="114"/>
+      <c r="AL73" s="153" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM73" s="153"/>
+      <c r="AN73" s="153"/>
+      <c r="AO73" s="66"/>
+      <c r="AP73" s="66"/>
+    </row>
+    <row r="74" spans="7:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G74" s="49"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J74" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K74" s="14">
+        <f>H33</f>
+        <v>69750</v>
+      </c>
+      <c r="L74" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="M74" s="45">
+        <f>K73</f>
+        <v>885.5</v>
+      </c>
+      <c r="O74" s="110"/>
+      <c r="P74" s="110"/>
+      <c r="Q74" s="115"/>
+      <c r="R74" s="115"/>
+      <c r="S74" s="115"/>
+      <c r="T74" s="115"/>
+      <c r="U74" s="115"/>
+      <c r="V74" s="115"/>
+      <c r="W74" s="115"/>
+      <c r="X74" s="115"/>
+      <c r="Y74" s="115"/>
+      <c r="Z74" s="115"/>
+      <c r="AA74" s="115"/>
+      <c r="AB74" s="115"/>
+      <c r="AC74" s="115"/>
+      <c r="AD74" s="115"/>
+      <c r="AE74" s="115"/>
+      <c r="AF74" s="115"/>
+      <c r="AG74" s="115"/>
+      <c r="AH74" s="115"/>
+      <c r="AI74" s="115"/>
+      <c r="AJ74" s="115"/>
+      <c r="AK74" s="115"/>
+      <c r="AL74" s="115"/>
+      <c r="AM74" s="115"/>
+      <c r="AN74" s="115"/>
+    </row>
+    <row r="75" spans="7:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="104"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="K75" s="63">
+        <f>K74+M74</f>
+        <v>70635.5</v>
+      </c>
+      <c r="L75" s="104"/>
+      <c r="M75" s="104"/>
+      <c r="O75" s="110"/>
+      <c r="P75" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q75" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="R75" s="166">
+        <f>TRUNC(H45,2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="S75" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="T75" s="167">
+        <f>TRUNC(I53,2)</f>
+        <v>72029.5</v>
+      </c>
+      <c r="U75" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="V75" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="W75" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="X75" s="166">
+        <f>TRUNC(H56,2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="Y75" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z75" s="167">
+        <f>TRUNC(I64,2)</f>
+        <v>70720.5</v>
+      </c>
+      <c r="AA75" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB75" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC75" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD75" s="166">
+        <f>TRUNC(H67,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AE75" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF75" s="167">
+        <f>TRUNC(K75,2)</f>
+        <v>70635.5</v>
+      </c>
+      <c r="AG75" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH75" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI75" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ75" s="166">
+        <f>TRUNC(H78,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AK75" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL75" s="167">
+        <f>TRUNC(K86,2)</f>
+        <v>70635.5</v>
+      </c>
+      <c r="AM75" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN75" s="115"/>
+    </row>
+    <row r="76" spans="7:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O76" s="115"/>
+      <c r="P76" s="115"/>
+      <c r="Q76" s="156">
+        <f>TRUNC(H45,2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="R76" s="157"/>
+      <c r="S76" s="157"/>
+      <c r="T76" s="157"/>
+      <c r="U76" s="157"/>
+      <c r="V76" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="W76" s="156">
+        <f>TRUNC(H56,2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="X76" s="157"/>
+      <c r="Y76" s="157"/>
+      <c r="Z76" s="157"/>
+      <c r="AA76" s="157"/>
+      <c r="AB76" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC76" s="156">
+        <f>TRUNC(H67,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AD76" s="156"/>
+      <c r="AE76" s="157"/>
+      <c r="AF76" s="157"/>
+      <c r="AG76" s="157"/>
+      <c r="AH76" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI76" s="156">
+        <f>TRUNC(H78,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AJ76" s="157"/>
+      <c r="AK76" s="157"/>
+      <c r="AL76" s="157"/>
+      <c r="AM76" s="115"/>
+      <c r="AN76" s="115"/>
+    </row>
+    <row r="77" spans="7:49" x14ac:dyDescent="0.25">
+      <c r="G77" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="H77" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="71">
+        <f>M14</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="J77" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="K77" s="72">
+        <f>M24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L77" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M77" s="104"/>
+    </row>
+    <row r="78" spans="7:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="58">
+        <f>MIN(I77,K77)</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="I78" s="104"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="104"/>
+      <c r="L78" s="104"/>
+      <c r="M78" s="104"/>
+      <c r="P78" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q78" s="158">
+        <f>R75*T75</f>
+        <v>23769.735000000001</v>
+      </c>
+      <c r="R78" s="158"/>
+      <c r="S78" s="158"/>
+      <c r="T78" s="158"/>
+      <c r="U78" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="V78" s="158">
+        <f>X75*Z75</f>
+        <v>46675.53</v>
+      </c>
+      <c r="W78" s="158"/>
+      <c r="X78" s="158"/>
+      <c r="Y78" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z78" s="120"/>
+      <c r="AA78" s="158">
+        <f>AD75*AF75</f>
+        <v>12008.035000000002</v>
+      </c>
+      <c r="AB78" s="158"/>
+      <c r="AC78" s="158"/>
+      <c r="AD78" s="118"/>
+      <c r="AE78" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF78" s="158">
+        <f>AJ75*AL75</f>
+        <v>12008.035000000002</v>
+      </c>
+      <c r="AG78" s="158"/>
+      <c r="AH78" s="158"/>
+    </row>
+    <row r="79" spans="7:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G79" s="104"/>
+      <c r="H79" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79" s="48" t="str">
+        <f>H41</f>
+        <v>x - a</v>
+      </c>
+      <c r="J79" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="K79" s="129">
+        <f>H78</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="L79" s="104"/>
+      <c r="M79" s="104"/>
+      <c r="Q79" s="156">
+        <f>Q76</f>
+        <v>0.33</v>
+      </c>
+      <c r="R79" s="156"/>
+      <c r="S79" s="156"/>
+      <c r="T79" s="156"/>
+      <c r="U79" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="V79" s="156">
+        <f>W76</f>
+        <v>0.66</v>
+      </c>
+      <c r="W79" s="156"/>
+      <c r="X79" s="156"/>
+      <c r="Y79" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z79" s="117"/>
+      <c r="AA79" s="156">
+        <f>AC76</f>
+        <v>0.17</v>
+      </c>
+      <c r="AB79" s="157"/>
+      <c r="AC79" s="157"/>
+      <c r="AD79" s="119"/>
+      <c r="AE79" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF79" s="156">
+        <f>AI76</f>
+        <v>0.17</v>
+      </c>
+      <c r="AG79" s="157"/>
+      <c r="AH79" s="157"/>
+    </row>
+    <row r="80" spans="7:49" x14ac:dyDescent="0.25">
+      <c r="G80" s="104"/>
+      <c r="H80" s="127"/>
+      <c r="I80" s="104" t="str">
+        <f>H42</f>
+        <v>b - a</v>
+      </c>
+      <c r="J80" s="128"/>
+      <c r="K80" s="129"/>
+      <c r="L80" s="104"/>
+      <c r="M80" s="104"/>
+    </row>
+    <row r="81" spans="7:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="104"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="62" t="str">
+        <f>L41</f>
+        <v>x - 69750</v>
+      </c>
+      <c r="J81" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="K81" s="129">
+        <f>K79</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="L81" s="104"/>
+      <c r="M81" s="104"/>
+      <c r="P81" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q81" s="158">
+        <f>Q78+V78+AA78+AF78</f>
+        <v>94461.335000000006</v>
+      </c>
+      <c r="R81" s="158"/>
+      <c r="S81" s="158"/>
+      <c r="T81" s="158"/>
+      <c r="U81" s="116"/>
+    </row>
+    <row r="82" spans="7:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="61">
+        <f>L42</f>
+        <v>3550</v>
+      </c>
+      <c r="J82" s="128"/>
+      <c r="K82" s="129"/>
+      <c r="L82" s="104"/>
+      <c r="M82" s="104"/>
+      <c r="Q82" s="156">
+        <f>Q79+V79+AA79+AF79</f>
+        <v>1.3299999999999998</v>
+      </c>
+      <c r="R82" s="156"/>
+      <c r="S82" s="156"/>
+      <c r="T82" s="156"/>
+    </row>
+    <row r="83" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G83" s="104"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="14" t="str">
+        <f>I81</f>
+        <v>x - 69750</v>
+      </c>
+      <c r="J83" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" s="105">
+        <f>K81</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="L83" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="M83" s="51">
+        <f>I82</f>
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="84" spans="7:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G84" s="104"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="14" t="str">
+        <f>I83</f>
+        <v>x - 69750</v>
+      </c>
+      <c r="J84" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K84" s="45">
+        <v>885.5</v>
+      </c>
+      <c r="L84" s="104"/>
+      <c r="M84" s="104"/>
+      <c r="P84" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q84" s="171">
+        <f>Q81/Q82</f>
+        <v>71023.560150375954</v>
+      </c>
+      <c r="R84" s="171"/>
+      <c r="S84" s="171"/>
+      <c r="T84" s="171"/>
+    </row>
+    <row r="85" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G85" s="49"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J85" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="K85" s="14">
+        <f>K41</f>
+        <v>69750</v>
+      </c>
+      <c r="L85" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="M85" s="45">
+        <f>K84</f>
+        <v>885.5</v>
+      </c>
+    </row>
+    <row r="86" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G86" s="104"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="K86" s="63">
+        <f>K85+M85</f>
+        <v>70635.5</v>
+      </c>
+      <c r="L86" s="104"/>
+      <c r="M86" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="120">
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AS16:AT16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="Q18:Y18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="AO18:AW18"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AN25:AN26"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AS32:AT32"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="Q34:Y34"/>
+    <mergeCell ref="AC34:AK34"/>
+    <mergeCell ref="AO34:AW34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="AB44:AB45"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="AP32:AQ32"/>
+    <mergeCell ref="AS48:AT48"/>
+    <mergeCell ref="AV48:AW48"/>
+    <mergeCell ref="Q50:Y50"/>
+    <mergeCell ref="AC50:AK50"/>
+    <mergeCell ref="AO50:AW50"/>
+    <mergeCell ref="AN44:AN45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="AB57:AB58"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AJ48:AK48"/>
+    <mergeCell ref="AP48:AQ48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="AN60:AN61"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AJ64:AK64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="Q72:T72"/>
+    <mergeCell ref="AP64:AQ64"/>
+    <mergeCell ref="AS64:AT64"/>
+    <mergeCell ref="AV64:AW64"/>
+    <mergeCell ref="Q66:Y66"/>
+    <mergeCell ref="AC66:AK66"/>
+    <mergeCell ref="AO66:AW66"/>
+    <mergeCell ref="Q76:U76"/>
+    <mergeCell ref="W76:AA76"/>
+    <mergeCell ref="AC76:AG76"/>
+    <mergeCell ref="AI76:AL76"/>
+    <mergeCell ref="X72:AA72"/>
+    <mergeCell ref="AF72:AH72"/>
+    <mergeCell ref="AL72:AN72"/>
+    <mergeCell ref="Q73:T73"/>
+    <mergeCell ref="X73:AA73"/>
+    <mergeCell ref="AF73:AH73"/>
+    <mergeCell ref="AL73:AN73"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="Q79:T79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="AF79:AH79"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="Q81:T81"/>
+    <mergeCell ref="Q82:T82"/>
+    <mergeCell ref="Q84:T84"/>
+    <mergeCell ref="Q78:T78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="AA78:AC78"/>
+    <mergeCell ref="AF78:AH78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>